--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2636329.365071397</v>
+        <v>-2637142.812283284</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954294</v>
+        <v>2927877.345954295</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.1059717842871</v>
+        <v>301.105971784287</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1172887419689</v>
+        <v>289.1172887419688</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>280.0985927864967</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564024</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0125464443796</v>
+        <v>321.0125464443795</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4070376922378</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>234.9781829577617</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241303</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>130.7597296842795</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>138.6422132566463</v>
+        <v>157.3531708040663</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.9124485024231</v>
       </c>
       <c r="X11" t="n">
-        <v>289.2127067351698</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>300.6093045313685</v>
@@ -1458,13 +1458,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>133.346860069625</v>
       </c>
       <c r="G12" t="n">
         <v>127.1529440554385</v>
       </c>
       <c r="H12" t="n">
-        <v>96.15438866313484</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I12" t="n">
         <v>57.77334520310319</v>
@@ -1500,7 +1500,7 @@
         <v>145.9169861849574</v>
       </c>
       <c r="T12" t="n">
-        <v>185.6363186866071</v>
+        <v>185.6363186866066</v>
       </c>
       <c r="U12" t="n">
         <v>216.2908792854683</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898421</v>
+        <v>92.72268265898413</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>78.92267750438461</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.544041901963</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592884</v>
+        <v>61.95871608592876</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033074</v>
+        <v>77.99174215033065</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366586</v>
+        <v>66.63306124366576</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227652</v>
+        <v>35.27030707444354</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271692</v>
+        <v>48.16276991271684</v>
       </c>
       <c r="S13" t="n">
-        <v>118.363767619385</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>140.8174128706116</v>
+        <v>140.8174128706115</v>
       </c>
       <c r="U13" t="n">
-        <v>195.3080224141332</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586098</v>
+        <v>169.1308190586097</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2977051292231</v>
+        <v>194.297705129223</v>
       </c>
       <c r="X13" t="n">
-        <v>21.00238568306002</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.8176748810939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.19677120534169</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564023</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443795</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922377</v>
+        <v>322.4070376922378</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577617</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241296</v>
+        <v>61.32070768241304</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545154</v>
+        <v>84.08218037545163</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842794</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U14" t="n">
-        <v>163.2962484526288</v>
+        <v>163.296248452629</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244662</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024231</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>21.89850562588777</v>
       </c>
       <c r="Y14" t="n">
         <v>300.6093045313685</v>
@@ -1701,7 +1701,7 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H15" t="n">
-        <v>96.15438866313484</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I15" t="n">
         <v>57.77334520310319</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.28834215945682</v>
+        <v>41.28834215945722</v>
       </c>
       <c r="S15" t="n">
         <v>145.9169861849574</v>
       </c>
       <c r="T15" t="n">
-        <v>185.6363186866075</v>
+        <v>185.6363186866066</v>
       </c>
       <c r="U15" t="n">
         <v>216.2908792854683</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>92.72268265898423</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438462</v>
+        <v>78.92267750438471</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196301</v>
+        <v>62.5440419019631</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774246</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592877</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>40.83515396660469</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.3637676193849</v>
+        <v>118.363767619385</v>
       </c>
       <c r="T16" t="n">
         <v>140.8174128706116</v>
       </c>
       <c r="U16" t="n">
-        <v>157.2525812833353</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586097</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W16" t="n">
-        <v>194.297705129223</v>
+        <v>194.2977051292231</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250261</v>
+        <v>139.9428071250262</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810938</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>224.1761802728466</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305283</v>
+        <v>212.1874972305284</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1688012750563</v>
+        <v>203.1688012750564</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9109388449618</v>
+        <v>224.9109388449619</v>
       </c>
       <c r="F17" t="n">
-        <v>244.082754932939</v>
+        <v>244.0827549329391</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4772461807972</v>
+        <v>245.4772461807973</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0483914463212</v>
+        <v>158.0483914463213</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011073</v>
+        <v>7.152388864011129</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283892</v>
+        <v>53.82993817283898</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118837</v>
+        <v>86.36645694118843</v>
       </c>
       <c r="V17" t="n">
-        <v>167.6825575130257</v>
+        <v>167.6825575130258</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9826569909826</v>
+        <v>192.9826569909827</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2829152237292</v>
+        <v>212.2829152237293</v>
       </c>
       <c r="Y17" t="n">
         <v>223.679513019928</v>
@@ -1935,10 +1935,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1529440554396</v>
+        <v>127.1529440554385</v>
       </c>
       <c r="H18" t="n">
-        <v>96.15438866313484</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I18" t="n">
         <v>57.77334520310319</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.28834215945682</v>
+        <v>41.28834215945722</v>
       </c>
       <c r="S18" t="n">
         <v>145.9169861849574</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754366</v>
+        <v>15.79289114754371</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944139</v>
+        <v>157.9548387396016</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890176</v>
+        <v>1.061950638890232</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.3959288546022</v>
+        <v>41.43397610794446</v>
       </c>
       <c r="T19" t="n">
-        <v>63.88762135917109</v>
+        <v>63.88762135917114</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3782309026926</v>
+        <v>118.3782309026927</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716925</v>
+        <v>92.2010275471693</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3679136177825</v>
+        <v>117.3679136177826</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358562</v>
+        <v>63.01301561358568</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965331</v>
+        <v>53.88788336965337</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1761802728464</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0827549329389</v>
+        <v>244.0827549329388</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4772461807971</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864010918</v>
+        <v>7.152388864011073</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283877</v>
+        <v>53.82993817283892</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118823</v>
+        <v>86.36645694118837</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6795130199278</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H21" t="n">
-        <v>96.15438866313484</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I21" t="n">
         <v>57.77334520310319</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754351</v>
+        <v>15.79289114754366</v>
       </c>
       <c r="C22" t="n">
-        <v>1.992885992943997</v>
+        <v>1.992885992944139</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890033</v>
+        <v>139.1090598811466</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.91484350440135</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794426</v>
+        <v>41.4339761079444</v>
       </c>
       <c r="T22" t="n">
-        <v>63.88762135917094</v>
+        <v>63.88762135917109</v>
       </c>
       <c r="U22" t="n">
-        <v>274.3401836493514</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V22" t="n">
-        <v>92.2010275471691</v>
+        <v>92.20102754716925</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3679136177824</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358548</v>
+        <v>63.01301561358562</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88788336965317</v>
+        <v>53.88788336965331</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1761802728464</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0827549329389</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4772461807971</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864010918</v>
+        <v>7.152388864011062</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283877</v>
+        <v>53.82993817283892</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118823</v>
+        <v>86.36645694118837</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6795130199278</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="24">
@@ -2409,10 +2409,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1529440554385</v>
+        <v>127.1529440554391</v>
       </c>
       <c r="H24" t="n">
-        <v>96.15438866313484</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I24" t="n">
         <v>57.77334520310319</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.28834215945587</v>
+        <v>41.28834215945682</v>
       </c>
       <c r="S24" t="n">
         <v>145.9169861849574</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79289114754351</v>
+        <v>15.79289114754366</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992943997</v>
+        <v>1.992885992944139</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>5.473028650364993</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>1.061950638890033</v>
+        <v>1.061950638890176</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.006104322177151</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794426</v>
+        <v>41.4339761079444</v>
       </c>
       <c r="T25" t="n">
-        <v>63.88762135917094</v>
+        <v>63.88762135917109</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V25" t="n">
-        <v>92.2010275471691</v>
+        <v>92.20102754716925</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3679136177824</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358548</v>
+        <v>63.01301561358562</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88788336965317</v>
+        <v>53.88788336965331</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804714</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T26" t="n">
         <v>117.257710766875</v>
@@ -2649,7 +2649,7 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H27" t="n">
-        <v>96.15438866313484</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I27" t="n">
         <v>57.77334520310319</v>
@@ -2728,10 +2728,10 @@
         <v>64.48972323292627</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626139</v>
+        <v>53.13104232626138</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487205</v>
+        <v>32.99398650487204</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>104.8617487019805</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U28" t="n">
         <v>181.8060034967287</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.6039528668827</v>
+        <v>287.6039528668826</v>
       </c>
       <c r="C29" t="n">
-        <v>275.6152698245644</v>
+        <v>275.6152698245643</v>
       </c>
       <c r="D29" t="n">
-        <v>266.5965738690924</v>
+        <v>266.5965738690923</v>
       </c>
       <c r="E29" t="n">
-        <v>288.338711438998</v>
+        <v>288.3387114389978</v>
       </c>
       <c r="F29" t="n">
-        <v>307.5105275269751</v>
+        <v>307.510527526975</v>
       </c>
       <c r="G29" t="n">
-        <v>308.9050187748334</v>
+        <v>308.9050187748333</v>
       </c>
       <c r="H29" t="n">
-        <v>221.4761640403573</v>
+        <v>221.4761640403572</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500855</v>
+        <v>47.81868876500847</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804714</v>
+        <v>70.58016145804706</v>
       </c>
       <c r="T29" t="n">
-        <v>117.257710766875</v>
+        <v>117.2577107668749</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7942295352245</v>
+        <v>149.7942295352244</v>
       </c>
       <c r="V29" t="n">
-        <v>231.1103301070618</v>
+        <v>231.1103301070617</v>
       </c>
       <c r="W29" t="n">
-        <v>256.4104295850187</v>
+        <v>256.4104295850186</v>
       </c>
       <c r="X29" t="n">
-        <v>275.7106878177653</v>
+        <v>275.7106878177652</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.1072856139641</v>
+        <v>287.107285613964</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H30" t="n">
-        <v>96.15438866313484</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I30" t="n">
-        <v>57.77334520310318</v>
+        <v>57.77334520310319</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.2883421594568</v>
+        <v>41.28834215945682</v>
       </c>
       <c r="S30" t="n">
-        <v>145.9169861849573</v>
+        <v>145.9169861849574</v>
       </c>
       <c r="T30" t="n">
         <v>185.6363186866066</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157976</v>
+        <v>79.22066374157966</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698024</v>
+        <v>65.42065858698014</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455863</v>
+        <v>49.04202298455853</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033808</v>
+        <v>47.98977284033798</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852439</v>
+        <v>48.45669716852429</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292628</v>
+        <v>64.48972323292618</v>
       </c>
       <c r="H31" t="n">
-        <v>53.1310423262614</v>
+        <v>53.13104232626131</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487205</v>
+        <v>32.99398650487196</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531237</v>
       </c>
       <c r="S31" t="n">
-        <v>104.8617487019805</v>
+        <v>104.8617487019804</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532072</v>
+        <v>127.3153939532071</v>
       </c>
       <c r="U31" t="n">
-        <v>181.8060034967287</v>
+        <v>181.8060034967286</v>
       </c>
       <c r="V31" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W31" t="n">
-        <v>180.7956862118186</v>
+        <v>180.7956862118185</v>
       </c>
       <c r="X31" t="n">
-        <v>126.4407882076217</v>
+        <v>126.4407882076216</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.3156559636894</v>
+        <v>117.3156559636893</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>287.6039528668827</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245645</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D32" t="n">
         <v>266.5965738690924</v>
@@ -3047,7 +3047,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.8186887650086</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.5801614580472</v>
+        <v>70.58016145804717</v>
       </c>
       <c r="T32" t="n">
-        <v>117.2577107668751</v>
+        <v>117.257710766875</v>
       </c>
       <c r="U32" t="n">
         <v>149.7942295352245</v>
@@ -3123,7 +3123,7 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H33" t="n">
-        <v>96.15438866313484</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I33" t="n">
         <v>57.77334520310319</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157978</v>
+        <v>79.22066374157976</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698027</v>
+        <v>65.42065858698024</v>
       </c>
       <c r="D34" t="n">
-        <v>49.04202298455866</v>
+        <v>49.04202298455863</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033811</v>
+        <v>47.98977284033808</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852441</v>
+        <v>48.45669716852439</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292631</v>
+        <v>64.48972323292628</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626144</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487209</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531249</v>
+        <v>34.66075099531247</v>
       </c>
       <c r="S34" t="n">
         <v>104.8617487019805</v>
@@ -3244,13 +3244,13 @@
         <v>181.8060034967287</v>
       </c>
       <c r="V34" t="n">
-        <v>155.6288001412054</v>
+        <v>155.6288001412053</v>
       </c>
       <c r="W34" t="n">
         <v>180.7956862118186</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4407882076218</v>
+        <v>126.4407882076217</v>
       </c>
       <c r="Y34" t="n">
         <v>117.3156559636894</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499653</v>
       </c>
       <c r="C35" t="n">
         <v>225.527665107647</v>
@@ -3272,7 +3272,7 @@
         <v>216.508969152175</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220806</v>
       </c>
       <c r="F35" t="n">
         <v>257.4229228100577</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112973</v>
+        <v>20.49255674112979</v>
       </c>
       <c r="T35" t="n">
-        <v>67.17010604995758</v>
+        <v>67.17010604995764</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830703</v>
+        <v>99.70662481830709</v>
       </c>
       <c r="V35" t="n">
         <v>181.0227253901444</v>
@@ -3332,7 +3332,7 @@
         <v>225.6230831008479</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970467</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466232</v>
+        <v>29.13305902466237</v>
       </c>
       <c r="C37" t="n">
-        <v>15.3330538700628</v>
+        <v>15.33305387006286</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600884</v>
+        <v>14.40211851600889</v>
       </c>
       <c r="H37" t="n">
-        <v>22.56027397547117</v>
+        <v>3.043437609344023</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506306</v>
+        <v>54.77414398506312</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628974</v>
+        <v>77.22778923628979</v>
       </c>
       <c r="U37" t="n">
         <v>131.7183987798113</v>
       </c>
       <c r="V37" t="n">
-        <v>105.5411954242879</v>
+        <v>105.541195424288</v>
       </c>
       <c r="W37" t="n">
         <v>130.7080814949012</v>
       </c>
       <c r="X37" t="n">
-        <v>76.35318349070428</v>
+        <v>95.87001985683084</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677197</v>
+        <v>67.22805124677203</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>216.508969152175</v>
       </c>
       <c r="E38" t="n">
-        <v>238.2511067220805</v>
+        <v>238.2511067220806</v>
       </c>
       <c r="F38" t="n">
         <v>257.4229228100577</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112976</v>
+        <v>20.49255674112979</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995761</v>
+        <v>67.17010604995764</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830706</v>
+        <v>99.70662481830709</v>
       </c>
       <c r="V38" t="n">
         <v>181.0227253901444</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466234</v>
+        <v>29.13305902466237</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006283</v>
+        <v>15.33305387006286</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600886</v>
+        <v>14.40211851600889</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343995</v>
+        <v>3.043437609344023</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>74.29098035119003</v>
+        <v>74.29098035118969</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628977</v>
+        <v>77.22778923628979</v>
       </c>
       <c r="U40" t="n">
         <v>131.7183987798113</v>
       </c>
       <c r="V40" t="n">
-        <v>105.5411954242879</v>
+        <v>105.541195424288</v>
       </c>
       <c r="W40" t="n">
         <v>130.7080814949012</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070431</v>
+        <v>76.35318349070434</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.228051246772</v>
+        <v>67.22805124677203</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C41" t="n">
-        <v>225.5276651076469</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D41" t="n">
         <v>216.5089691521749</v>
       </c>
       <c r="E41" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F41" t="n">
         <v>257.4229228100576</v>
       </c>
       <c r="G41" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H41" t="n">
         <v>171.3885593234398</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112965</v>
+        <v>20.4925567411297</v>
       </c>
       <c r="T41" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995755</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830701</v>
       </c>
       <c r="V41" t="n">
         <v>181.0227253901443</v>
@@ -3803,7 +3803,7 @@
         <v>206.3228248681012</v>
       </c>
       <c r="X41" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y41" t="n">
         <v>237.0196808970466</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466223</v>
+        <v>29.13305902466229</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006271</v>
+        <v>15.33305387006277</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600881</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343881</v>
+        <v>3.043437609343938</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440135</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.37613684678981</v>
+        <v>74.29098035119048</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628965</v>
+        <v>77.22778923628971</v>
       </c>
       <c r="U43" t="n">
         <v>131.7183987798112</v>
       </c>
       <c r="V43" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W43" t="n">
         <v>130.7080814949011</v>
       </c>
       <c r="X43" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070425</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677194</v>
       </c>
     </row>
     <row r="44">
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112969</v>
+        <v>20.4925567411297</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995754</v>
+        <v>67.17010604995755</v>
       </c>
       <c r="U44" t="n">
         <v>99.70662481830701</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>74.29098035119048</v>
+        <v>54.77414398506303</v>
       </c>
       <c r="T46" t="n">
         <v>77.22778923628971</v>
@@ -4201,7 +4201,7 @@
         <v>76.35318349070425</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677194</v>
+        <v>86.74488761289943</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1359.415491071157</v>
+        <v>1492.091279323286</v>
       </c>
       <c r="C11" t="n">
-        <v>1067.377825675229</v>
+        <v>1200.053613927358</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.377825675229</v>
+        <v>917.1257424258458</v>
       </c>
       <c r="E11" t="n">
-        <v>762.4881990526005</v>
+        <v>612.2361158032172</v>
       </c>
       <c r="F11" t="n">
-        <v>438.2331016340353</v>
+        <v>287.9810183846521</v>
       </c>
       <c r="G11" t="n">
-        <v>112.5694271974313</v>
+        <v>287.9810183846521</v>
       </c>
       <c r="H11" t="n">
-        <v>112.5694271974313</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I11" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J11" t="n">
-        <v>167.89857741447</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K11" t="n">
-        <v>475.8880155938955</v>
+        <v>287.2391769275699</v>
       </c>
       <c r="L11" t="n">
-        <v>907.9461548436965</v>
+        <v>719.2973161773709</v>
       </c>
       <c r="M11" t="n">
-        <v>1358.227155577601</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N11" t="n">
-        <v>1831.732426143463</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O11" t="n">
-        <v>2226.607036788429</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P11" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.465921365857</v>
@@ -5069,22 +5069,22 @@
         <v>2531.465921365857</v>
       </c>
       <c r="T11" t="n">
-        <v>2399.385386331231</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="U11" t="n">
-        <v>2259.342746678052</v>
+        <v>2372.523324594073</v>
       </c>
       <c r="V11" t="n">
-        <v>2259.342746678052</v>
+        <v>2372.523324594073</v>
       </c>
       <c r="W11" t="n">
-        <v>2259.342746678052</v>
+        <v>2099.884487722938</v>
       </c>
       <c r="X11" t="n">
-        <v>1967.20869947081</v>
+        <v>2099.884487722938</v>
       </c>
       <c r="Y11" t="n">
-        <v>1663.562937317912</v>
+        <v>1796.238725570041</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779675</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189222</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091343</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660055</v>
       </c>
       <c r="F12" t="n">
         <v>334.5491951158792</v>
@@ -5118,25 +5118,25 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J12" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K12" t="n">
-        <v>326.2038087596721</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L12" t="n">
-        <v>753.9911953756169</v>
+        <v>841.2082694571445</v>
       </c>
       <c r="M12" t="n">
-        <v>1311.335413027355</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.825776698124</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.926843062759</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.926843062759</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.465921365857</v>
@@ -5151,13 +5151,13 @@
         <v>2154.858197092098</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V12" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X12" t="n">
         <v>1268.754082009649</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>306.2652021669151</v>
+        <v>437.8217890947072</v>
       </c>
       <c r="C13" t="n">
-        <v>306.2652021669151</v>
+        <v>358.1019128276521</v>
       </c>
       <c r="D13" t="n">
-        <v>306.2652021669151</v>
+        <v>294.9261129266794</v>
       </c>
       <c r="E13" t="n">
-        <v>306.2652021669151</v>
+        <v>294.9261129266794</v>
       </c>
       <c r="F13" t="n">
-        <v>243.6806404639567</v>
+        <v>232.3415512237211</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9011029383701</v>
+        <v>153.5620136981346</v>
       </c>
       <c r="H13" t="n">
-        <v>97.59498047002069</v>
+        <v>86.25589122978535</v>
       </c>
       <c r="I13" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413189</v>
+        <v>96.79005415413178</v>
       </c>
       <c r="K13" t="n">
         <v>246.2990519958643</v>
@@ -5206,10 +5206,10 @@
         <v>470.5847128405362</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447748</v>
+        <v>714.1904553447749</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068816</v>
+        <v>957.3332466068817</v>
       </c>
       <c r="O13" t="n">
         <v>1177.722352077498</v>
@@ -5224,25 +5224,25 @@
         <v>1379.457596424593</v>
       </c>
       <c r="S13" t="n">
-        <v>1259.898235192891</v>
+        <v>1379.457596424593</v>
       </c>
       <c r="T13" t="n">
-        <v>1117.658424212475</v>
+        <v>1237.217785444177</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911284</v>
+        <v>1039.936954722831</v>
       </c>
       <c r="V13" t="n">
-        <v>749.5383823208156</v>
+        <v>869.0977435525185</v>
       </c>
       <c r="W13" t="n">
-        <v>553.2780741094789</v>
+        <v>672.8374353411822</v>
       </c>
       <c r="X13" t="n">
-        <v>532.063543116489</v>
+        <v>531.4810645078226</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.9244775800305</v>
+        <v>531.4810645078226</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1304.729525632564</v>
+        <v>1272.512093609927</v>
       </c>
       <c r="C14" t="n">
-        <v>1304.729525632564</v>
+        <v>980.474428213999</v>
       </c>
       <c r="D14" t="n">
-        <v>1304.729525632564</v>
+        <v>980.474428213999</v>
       </c>
       <c r="E14" t="n">
-        <v>999.8398990099352</v>
+        <v>675.5848015913703</v>
       </c>
       <c r="F14" t="n">
-        <v>675.58480159137</v>
+        <v>675.5848015913703</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9211271547662</v>
+        <v>349.9211271547664</v>
       </c>
       <c r="H14" t="n">
-        <v>112.5694271974312</v>
+        <v>112.5694271974313</v>
       </c>
       <c r="I14" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J14" t="n">
-        <v>131.2819911811607</v>
+        <v>167.89857741447</v>
       </c>
       <c r="K14" t="n">
-        <v>439.2714293605862</v>
+        <v>475.8880155938955</v>
       </c>
       <c r="L14" t="n">
-        <v>871.3295686103872</v>
+        <v>907.9461548436965</v>
       </c>
       <c r="M14" t="n">
-        <v>1358.227155577602</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N14" t="n">
-        <v>1831.732426143463</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O14" t="n">
-        <v>2226.607036788429</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P14" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.465921365857</v>
@@ -5306,22 +5306,22 @@
         <v>2446.534426037118</v>
       </c>
       <c r="T14" t="n">
-        <v>2314.453891002493</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="U14" t="n">
-        <v>2149.508185494787</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="V14" t="n">
-        <v>1902.425004661992</v>
+        <v>1902.425004661991</v>
       </c>
       <c r="W14" t="n">
-        <v>1629.786167790858</v>
+        <v>1902.425004661991</v>
       </c>
       <c r="X14" t="n">
-        <v>1629.786167790858</v>
+        <v>1880.305302009579</v>
       </c>
       <c r="Y14" t="n">
-        <v>1326.14040563796</v>
+        <v>1576.659539856682</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>108.986232773886</v>
       </c>
       <c r="I15" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J15" t="n">
         <v>137.8463925088448</v>
@@ -5367,22 +5367,22 @@
         <v>1398.552487108883</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.571119459616</v>
+        <v>1714.772304204091</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.672185824252</v>
+        <v>2174.873370568727</v>
       </c>
       <c r="P15" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R15" t="n">
-        <v>2489.760525245194</v>
+        <v>2489.760525245193</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T15" t="n">
         <v>2154.858197092098</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>318.2224772657206</v>
+        <v>234.772624864643</v>
       </c>
       <c r="C16" t="n">
-        <v>238.5026009986649</v>
+        <v>155.0527485975878</v>
       </c>
       <c r="D16" t="n">
-        <v>175.3268010976921</v>
+        <v>91.8769486966148</v>
       </c>
       <c r="E16" t="n">
-        <v>113.2138801302755</v>
+        <v>91.8769486966148</v>
       </c>
       <c r="F16" t="n">
-        <v>50.62931842731714</v>
+        <v>91.8769486966148</v>
       </c>
       <c r="G16" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H16" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I16" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413189</v>
+        <v>96.79005415413174</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958644</v>
+        <v>246.2990519958643</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405363</v>
+        <v>470.5847128405361</v>
       </c>
       <c r="M16" t="n">
-        <v>714.190455344775</v>
+        <v>714.1904553447747</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068819</v>
+        <v>957.3332466068814</v>
       </c>
       <c r="O16" t="n">
         <v>1177.722352077498</v>
@@ -5455,31 +5455,31 @@
         <v>1357.735393016882</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.106858962692</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424594</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.898235192892</v>
+        <v>1308.547497730988</v>
       </c>
       <c r="T16" t="n">
-        <v>1117.658424212476</v>
+        <v>1166.307686750573</v>
       </c>
       <c r="U16" t="n">
-        <v>958.8174330171879</v>
+        <v>969.0268560292261</v>
       </c>
       <c r="V16" t="n">
-        <v>787.978221846875</v>
+        <v>798.1876448589131</v>
       </c>
       <c r="W16" t="n">
-        <v>591.7179136355387</v>
+        <v>601.9273366475767</v>
       </c>
       <c r="X16" t="n">
-        <v>450.361542802179</v>
+        <v>460.5709658142168</v>
       </c>
       <c r="Y16" t="n">
-        <v>318.2224772657206</v>
+        <v>328.4319002777584</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121855</v>
+        <v>931.9619764121851</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021231</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F17" t="n">
-        <v>458.230972596124</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G17" t="n">
         <v>210.2741582720861</v>
       </c>
       <c r="H17" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I17" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J17" t="n">
         <v>167.89857741447</v>
@@ -5522,16 +5522,16 @@
         <v>907.9461548436965</v>
       </c>
       <c r="M17" t="n">
-        <v>1358.227155577602</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N17" t="n">
-        <v>1831.732426143463</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O17" t="n">
-        <v>2226.607036788429</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P17" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q17" t="n">
         <v>2531.465921365857</v>
@@ -5540,7 +5540,7 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149685</v>
       </c>
       <c r="T17" t="n">
         <v>2469.867611227625</v>
@@ -5555,10 +5555,10 @@
         <v>2018.320468353689</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.954379218682</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.813312877968</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1096401189227</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2710031091348</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E18" t="n">
-        <v>469.242993166006</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F18" t="n">
-        <v>334.5491951158804</v>
+        <v>334.5491951158792</v>
       </c>
       <c r="G18" t="n">
         <v>206.1118778881636</v>
@@ -5589,55 +5589,55 @@
         <v>108.986232773886</v>
       </c>
       <c r="I18" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J18" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K18" t="n">
-        <v>50.62931842731714</v>
+        <v>326.2038087596721</v>
       </c>
       <c r="L18" t="n">
-        <v>478.416705043262</v>
+        <v>753.9911953756169</v>
       </c>
       <c r="M18" t="n">
-        <v>1035.760922695</v>
+        <v>1311.335413027355</v>
       </c>
       <c r="N18" t="n">
-        <v>1621.251286365769</v>
+        <v>1896.825776698124</v>
       </c>
       <c r="O18" t="n">
-        <v>2081.352352730404</v>
+        <v>2174.873370568727</v>
       </c>
       <c r="P18" t="n">
-        <v>2437.944903527534</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R18" t="n">
-        <v>2489.760525245194</v>
+        <v>2489.760525245193</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T18" t="n">
-        <v>2154.858197092099</v>
+        <v>2154.858197092098</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V18" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X18" t="n">
-        <v>1268.75408200965</v>
+        <v>1268.754082009649</v>
       </c>
       <c r="Y18" t="n">
-        <v>1076.232755659229</v>
+        <v>1076.232755659228</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.71501199482655</v>
+        <v>211.2523380015513</v>
       </c>
       <c r="C19" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033757</v>
       </c>
       <c r="D19" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033757</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033757</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70199584033752</v>
+        <v>51.70199584033757</v>
       </c>
       <c r="G19" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H19" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J19" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K19" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L19" t="n">
-        <v>248.209655083389</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M19" t="n">
         <v>403.7082365724613</v>
@@ -5698,25 +5698,25 @@
         <v>782.9316911990693</v>
       </c>
       <c r="S19" t="n">
-        <v>583.5418640732084</v>
+        <v>741.0791900799335</v>
       </c>
       <c r="T19" t="n">
-        <v>519.0089132053589</v>
+        <v>676.5462392120838</v>
       </c>
       <c r="U19" t="n">
-        <v>399.4349425965785</v>
+        <v>556.9722686033034</v>
       </c>
       <c r="V19" t="n">
-        <v>306.3025915388317</v>
+        <v>463.8399175455567</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7491434400615</v>
+        <v>345.2864694467864</v>
       </c>
       <c r="X19" t="n">
-        <v>124.0996327192679</v>
+        <v>281.6369587259928</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.66742729537569</v>
+        <v>227.2047533021005</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.513793084494</v>
+        <v>1351.513793084493</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.182987801132</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121867</v>
+        <v>931.9619764121849</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021242</v>
+        <v>704.7792099021224</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961254</v>
+        <v>458.2309725961235</v>
       </c>
       <c r="G20" t="n">
-        <v>210.2741582720859</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H20" t="n">
         <v>50.62931842731713</v>
@@ -5753,10 +5753,10 @@
         <v>167.89857741447</v>
       </c>
       <c r="K20" t="n">
-        <v>475.8880155938955</v>
+        <v>287.2391769275699</v>
       </c>
       <c r="L20" t="n">
-        <v>907.9461548436965</v>
+        <v>719.2973161773709</v>
       </c>
       <c r="M20" t="n">
         <v>1206.194903144586</v>
@@ -5780,7 +5780,7 @@
         <v>2524.241286149684</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U20" t="n">
         <v>2382.628765832485</v>
@@ -5789,13 +5789,13 @@
         <v>2213.252445112257</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X20" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.954379218682</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1802.249242161614</v>
+        <v>193.1565364819543</v>
       </c>
       <c r="C22" t="n">
-        <v>1800.236226007125</v>
+        <v>191.1435203274652</v>
       </c>
       <c r="D22" t="n">
-        <v>1800.236226007125</v>
+        <v>191.1435203274652</v>
       </c>
       <c r="E22" t="n">
-        <v>1800.236226007125</v>
+        <v>191.1435203274652</v>
       </c>
       <c r="F22" t="n">
-        <v>1800.236226007125</v>
+        <v>191.1435203274652</v>
       </c>
       <c r="G22" t="n">
-        <v>1799.163548594104</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H22" t="n">
-        <v>1799.163548594104</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I22" t="n">
-        <v>1799.163548594104</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J22" t="n">
-        <v>1799.163548594104</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K22" t="n">
-        <v>1860.565385420671</v>
+        <v>112.0311552538833</v>
       </c>
       <c r="L22" t="n">
-        <v>1996.743885250176</v>
+        <v>248.2096550833889</v>
       </c>
       <c r="M22" t="n">
-        <v>2152.242466739249</v>
+        <v>403.7082365724613</v>
       </c>
       <c r="N22" t="n">
-        <v>2307.278096986189</v>
+        <v>558.7438668194018</v>
       </c>
       <c r="O22" t="n">
-        <v>2439.560041441639</v>
+        <v>691.0258112748517</v>
       </c>
       <c r="P22" t="n">
-        <v>2531.465921365857</v>
+        <v>782.9316911990693</v>
       </c>
       <c r="Q22" t="n">
-        <v>2531.465921365857</v>
+        <v>764.835889679472</v>
       </c>
       <c r="R22" t="n">
-        <v>2531.465921365857</v>
+        <v>764.835889679472</v>
       </c>
       <c r="S22" t="n">
-        <v>2489.613420246721</v>
+        <v>722.9833885603362</v>
       </c>
       <c r="T22" t="n">
-        <v>2425.080469378871</v>
+        <v>658.4504376924866</v>
       </c>
       <c r="U22" t="n">
-        <v>2147.969172763365</v>
+        <v>538.8764670837062</v>
       </c>
       <c r="V22" t="n">
-        <v>2054.836821705618</v>
+        <v>445.7441160259594</v>
       </c>
       <c r="W22" t="n">
-        <v>1936.283373606848</v>
+        <v>327.1906679271892</v>
       </c>
       <c r="X22" t="n">
-        <v>1872.633862886055</v>
+        <v>263.5411572063957</v>
       </c>
       <c r="Y22" t="n">
-        <v>1818.201657462163</v>
+        <v>209.1089517825034</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.513793084492</v>
+        <v>1351.513793084493</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.18298780113</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121844</v>
+        <v>931.9619764121853</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021221</v>
+        <v>704.7792099021228</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2309725961234</v>
+        <v>458.2309725961238</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2741582720859</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H23" t="n">
-        <v>50.6293184273171</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I23" t="n">
-        <v>50.6293184273171</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J23" t="n">
-        <v>131.2819911811589</v>
+        <v>167.89857741447</v>
       </c>
       <c r="K23" t="n">
-        <v>439.2714293605844</v>
+        <v>475.8880155938955</v>
       </c>
       <c r="L23" t="n">
-        <v>871.3295686103854</v>
+        <v>907.9461548436965</v>
       </c>
       <c r="M23" t="n">
-        <v>1358.2271555776</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N23" t="n">
-        <v>1831.732426143461</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O23" t="n">
-        <v>2226.607036788427</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P23" t="n">
-        <v>2531.465921365855</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.465921365855</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.465921365855</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149682</v>
+        <v>2524.241286149684</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227623</v>
+        <v>2469.867611227625</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.628765832484</v>
+        <v>2382.628765832485</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.252445112256</v>
+        <v>2213.252445112257</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353687</v>
+        <v>2018.320468353689</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259011</v>
+        <v>1803.893281259013</v>
       </c>
       <c r="Y23" t="n">
-        <v>1577.95437921868</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779675</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189222</v>
       </c>
       <c r="D24" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091343</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660055</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5491951158792</v>
+        <v>334.5491951158799</v>
       </c>
       <c r="G24" t="n">
         <v>206.1118778881636</v>
@@ -6063,7 +6063,7 @@
         <v>108.986232773886</v>
       </c>
       <c r="I24" t="n">
-        <v>50.6293184273171</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J24" t="n">
         <v>137.8463925088448</v>
@@ -6078,34 +6078,34 @@
         <v>1398.552487108883</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.571119459614</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.67218582425</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P24" t="n">
-        <v>2337.26473662138</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.465921365855</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="R24" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T24" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W24" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X24" t="n">
         <v>1268.754082009649</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.2523380015529</v>
+        <v>211.2523380015516</v>
       </c>
       <c r="C25" t="n">
-        <v>209.239321847064</v>
+        <v>209.2393218470626</v>
       </c>
       <c r="D25" t="n">
-        <v>209.239321847064</v>
+        <v>209.2393218470626</v>
       </c>
       <c r="E25" t="n">
-        <v>57.23030760838279</v>
+        <v>209.2393218470626</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70199584033734</v>
+        <v>56.75866687283968</v>
       </c>
       <c r="G25" t="n">
-        <v>50.6293184273171</v>
+        <v>55.6859894598193</v>
       </c>
       <c r="H25" t="n">
-        <v>50.6293184273171</v>
+        <v>55.6859894598193</v>
       </c>
       <c r="I25" t="n">
-        <v>50.6293184273171</v>
+        <v>55.6859894598193</v>
       </c>
       <c r="J25" t="n">
-        <v>50.6293184273171</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K25" t="n">
         <v>112.0311552538833</v>
@@ -6172,25 +6172,25 @@
         <v>782.9316911990693</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799337</v>
+        <v>741.0791900799335</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120843</v>
+        <v>676.5462392120839</v>
       </c>
       <c r="U25" t="n">
-        <v>556.972268603304</v>
+        <v>556.9722686033035</v>
       </c>
       <c r="V25" t="n">
-        <v>463.8399175455574</v>
+        <v>463.8399175455568</v>
       </c>
       <c r="W25" t="n">
-        <v>345.2864694467874</v>
+        <v>345.2864694467866</v>
       </c>
       <c r="X25" t="n">
-        <v>281.636958725994</v>
+        <v>281.636958725993</v>
       </c>
       <c r="Y25" t="n">
-        <v>227.2047533021019</v>
+        <v>227.2047533021008</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1255.828533472544</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5773097967885</v>
+        <v>964.577309796789</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250966</v>
+        <v>653.960615325097</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353658</v>
+        <v>341.9353438353664</v>
       </c>
       <c r="H26" t="n">
         <v>118.2220468249039</v>
@@ -6239,31 +6239,31 @@
         <v>2395.010833668102</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019166</v>
+        <v>2891.359604056464</v>
       </c>
       <c r="P26" t="n">
         <v>3196.365573339991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.723957701282</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052696</v>
+        <v>3154.974523052695</v>
       </c>
       <c r="V26" t="n">
         <v>2921.529745166774</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242512</v>
       </c>
       <c r="X26" t="n">
         <v>2384.033666982144</v>
@@ -6291,10 +6291,10 @@
         <v>488.5340157403507</v>
       </c>
       <c r="F27" t="n">
-        <v>353.840217690225</v>
+        <v>353.8402176902251</v>
       </c>
       <c r="G27" t="n">
-        <v>225.4029004625094</v>
+        <v>225.4029004625095</v>
       </c>
       <c r="H27" t="n">
         <v>128.2772553482318</v>
@@ -6303,16 +6303,16 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J27" t="n">
-        <v>157.1374150831906</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="K27" t="n">
-        <v>432.7119054155456</v>
+        <v>345.4948313340179</v>
       </c>
       <c r="L27" t="n">
-        <v>860.4992920314904</v>
+        <v>773.2822179499628</v>
       </c>
       <c r="M27" t="n">
-        <v>954.3717783631926</v>
+        <v>954.3717783631927</v>
       </c>
       <c r="N27" t="n">
         <v>1539.862142033961</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485933</v>
+        <v>435.0960012485932</v>
       </c>
       <c r="C28" t="n">
         <v>369.0145279284112</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743116</v>
+        <v>319.4771309743115</v>
       </c>
       <c r="E28" t="n">
         <v>271.0026129537681</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976829</v>
+        <v>222.0564541976828</v>
       </c>
       <c r="G28" t="n">
         <v>156.9153196189694</v>
@@ -6382,16 +6382,16 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J28" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567079</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266709</v>
+        <v>292.324072026671</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995732</v>
+        <v>529.9767315995733</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320423</v>
+        <v>786.9494728320424</v>
       </c>
       <c r="N28" t="n">
         <v>1043.45926282238</v>
@@ -6418,16 +6418,16 @@
         <v>1101.15821767881</v>
       </c>
       <c r="V28" t="n">
-        <v>943.9574094553706</v>
+        <v>943.9574094553705</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909074</v>
+        <v>761.3355041909072</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044208</v>
+        <v>633.6175363044206</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148354</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476239</v>
+        <v>1803.517264476238</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027184</v>
+        <v>1525.118002027183</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.828533472545</v>
+        <v>1255.828533472544</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967897</v>
+        <v>964.577309796789</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250976</v>
+        <v>653.9606153250968</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353669</v>
+        <v>341.9353438353663</v>
       </c>
       <c r="H29" t="n">
-        <v>118.2220468249039</v>
+        <v>118.2220468249038</v>
       </c>
       <c r="I29" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J29" t="n">
         <v>288.6637597322125</v>
       </c>
       <c r="K29" t="n">
-        <v>698.1273576550348</v>
+        <v>698.1273576550349</v>
       </c>
       <c r="L29" t="n">
         <v>1231.659656648233</v>
       </c>
       <c r="M29" t="n">
-        <v>1718.704328321546</v>
+        <v>1820.031403358844</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.683758630804</v>
+        <v>2395.010833668102</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019165</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.365573339991</v>
+        <v>3196.36557333999</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516404</v>
+        <v>3449.871985516402</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083145</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.723957701282</v>
+        <v>3424.72395770128</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.281825613529</v>
+        <v>3306.281825613527</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052696</v>
+        <v>3154.974523052695</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.529745166776</v>
+        <v>2921.529745166774</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242514</v>
+        <v>2662.529311242512</v>
       </c>
       <c r="X29" t="n">
-        <v>2384.033666982145</v>
+        <v>2384.033666982144</v>
       </c>
       <c r="Y29" t="n">
-        <v>2094.026307776121</v>
+        <v>2094.026307776119</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I30" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J30" t="n">
-        <v>157.1374150831906</v>
+        <v>157.1374150831905</v>
       </c>
       <c r="K30" t="n">
-        <v>432.7119054155456</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="L30" t="n">
-        <v>860.4992920314905</v>
+        <v>860.4992920314903</v>
       </c>
       <c r="M30" t="n">
         <v>1417.843509683229</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485933</v>
+        <v>435.0960012485926</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284113</v>
+        <v>369.0145279284106</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743116</v>
+        <v>319.4771309743111</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537681</v>
+        <v>271.0026129537677</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976829</v>
+        <v>222.0564541976826</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9153196189694</v>
+        <v>156.9153196189692</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2476000974933</v>
+        <v>103.2476000974932</v>
       </c>
       <c r="I31" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4480754567076</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3240720266705</v>
+        <v>292.324072026671</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995729</v>
+        <v>529.9767315995734</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320419</v>
+        <v>786.9494728320404</v>
       </c>
       <c r="N31" t="n">
-        <v>1043.459262822379</v>
+        <v>1043.459262822378</v>
       </c>
       <c r="O31" t="n">
-        <v>1277.215367021226</v>
+        <v>1277.215367021224</v>
       </c>
       <c r="P31" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688839</v>
       </c>
       <c r="Q31" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.333871362878</v>
       </c>
       <c r="R31" t="n">
-        <v>1519.323011771655</v>
+        <v>1519.323011771654</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486825</v>
       </c>
       <c r="T31" t="n">
         <v>1284.800645453283</v>
       </c>
       <c r="U31" t="n">
-        <v>1101.15821767881</v>
+        <v>1101.158217678809</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9574094553702</v>
+        <v>943.9574094553695</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909069</v>
+        <v>761.3355041909064</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044204</v>
+        <v>633.6175363044199</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148347</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476237</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027182</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472543</v>
       </c>
       <c r="E32" t="n">
-        <v>964.577309796789</v>
+        <v>964.5773097967874</v>
       </c>
       <c r="F32" t="n">
-        <v>653.960615325097</v>
+        <v>653.9606153250953</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353663</v>
+        <v>341.9353438353646</v>
       </c>
       <c r="H32" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I32" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6637597322125</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K32" t="n">
         <v>698.1273576550348</v>
       </c>
       <c r="L32" t="n">
-        <v>1231.659656648233</v>
+        <v>1130.332581610934</v>
       </c>
       <c r="M32" t="n">
-        <v>1820.031403358844</v>
+        <v>1718.704328321545</v>
       </c>
       <c r="N32" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630803</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019165</v>
       </c>
       <c r="P32" t="n">
-        <v>3196.365573339991</v>
+        <v>3196.36557333999</v>
       </c>
       <c r="Q32" t="n">
-        <v>3449.871985516404</v>
+        <v>3449.871985516402</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083145</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701279</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613526</v>
       </c>
       <c r="U32" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052694</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166773</v>
       </c>
       <c r="W32" t="n">
         <v>2662.529311242512</v>
       </c>
       <c r="X32" t="n">
-        <v>2384.033666982144</v>
+        <v>2384.033666982143</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.026307776118</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I33" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J33" t="n">
-        <v>157.1374150831906</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="K33" t="n">
-        <v>397.0275607114542</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="L33" t="n">
-        <v>397.0275607114542</v>
+        <v>397.0275607114543</v>
       </c>
       <c r="M33" t="n">
-        <v>954.3717783631926</v>
+        <v>954.3717783631927</v>
       </c>
       <c r="N33" t="n">
         <v>1539.862142033961</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485936</v>
+        <v>435.096001248593</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284114</v>
+        <v>369.0145279284109</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743118</v>
+        <v>319.4771309743113</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537682</v>
+        <v>271.0026129537678</v>
       </c>
       <c r="F34" t="n">
-        <v>222.056454197683</v>
+        <v>222.0564541976825</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189695</v>
+        <v>156.9153196189691</v>
       </c>
       <c r="H34" t="n">
         <v>103.2476000974933</v>
       </c>
       <c r="I34" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J34" t="n">
         <v>129.448075456708</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266708</v>
+        <v>292.324072026671</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995731</v>
+        <v>529.9767315995734</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320421</v>
+        <v>786.9494728320426</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.459262822379</v>
+        <v>1043.45926282238</v>
       </c>
       <c r="O34" t="n">
         <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688841</v>
       </c>
       <c r="Q34" t="n">
         <v>1554.33387136288</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771656</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486827</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T34" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.158217678811</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553709</v>
+        <v>943.9574094553702</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909076</v>
+        <v>761.3355041909069</v>
       </c>
       <c r="X34" t="n">
-        <v>633.617536304421</v>
+        <v>633.6175363044205</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148357</v>
+        <v>515.1168737148352</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.407549338418</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D35" t="n">
-        <v>989.7116209018768</v>
+        <v>989.7116209018764</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442195</v>
+        <v>749.0539373442191</v>
       </c>
       <c r="F35" t="n">
-        <v>489.030782990626</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189935</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="J35" t="n">
-        <v>171.7485537137828</v>
+        <v>171.7485537137832</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932084</v>
+        <v>479.7379918932086</v>
       </c>
       <c r="L35" t="n">
-        <v>911.7961311430095</v>
+        <v>911.7961311430097</v>
       </c>
       <c r="M35" t="n">
         <v>1398.693718110224</v>
@@ -6953,13 +6953,13 @@
         <v>2267.073599321051</v>
       </c>
       <c r="P35" t="n">
-        <v>2571.932483898478</v>
+        <v>2571.932483898479</v>
       </c>
       <c r="Q35" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331495</v>
       </c>
       <c r="R35" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331495</v>
       </c>
       <c r="S35" t="n">
         <v>2703.265184067727</v>
@@ -6974,13 +6974,13 @@
         <v>2351.851591887516</v>
       </c>
       <c r="W35" t="n">
-        <v>2143.444698081354</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.542593939083</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="J36" t="n">
         <v>141.6963688081575</v>
@@ -7020,13 +7020,13 @@
         <v>417.2708591405125</v>
       </c>
       <c r="L36" t="n">
-        <v>845.0582457564574</v>
+        <v>841.6875808010567</v>
       </c>
       <c r="M36" t="n">
-        <v>1402.402463408196</v>
+        <v>1399.031798452795</v>
       </c>
       <c r="N36" t="n">
-        <v>1524.421095758928</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="O36" t="n">
         <v>1984.522162123563</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.3029779201075</v>
+        <v>87.58900179270644</v>
       </c>
       <c r="C37" t="n">
-        <v>91.81504471802384</v>
+        <v>72.10106859062275</v>
       </c>
       <c r="D37" t="n">
-        <v>91.81504471802384</v>
+        <v>72.10106859062275</v>
       </c>
       <c r="E37" t="n">
-        <v>91.81504471802384</v>
+        <v>72.10106859062275</v>
       </c>
       <c r="F37" t="n">
-        <v>91.81504471802384</v>
+        <v>72.10106859062275</v>
       </c>
       <c r="G37" t="n">
-        <v>77.26745025740885</v>
+        <v>57.5534741300077</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="K37" t="n">
         <v>115.8811315531961</v>
@@ -7120,25 +7120,25 @@
         <v>786.7816674983819</v>
       </c>
       <c r="S37" t="n">
-        <v>731.4542493316516</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T37" t="n">
-        <v>653.4463814162074</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U37" t="n">
-        <v>520.3974937598324</v>
+        <v>520.3974937598322</v>
       </c>
       <c r="V37" t="n">
-        <v>413.7902256544911</v>
+        <v>413.7902256544908</v>
       </c>
       <c r="W37" t="n">
-        <v>281.7618605081262</v>
+        <v>281.7618605081259</v>
       </c>
       <c r="X37" t="n">
-        <v>204.6374327397381</v>
+        <v>184.9234566123372</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.7303102682512</v>
+        <v>117.0163341408503</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C38" t="n">
         <v>1208.407549338417</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018766</v>
+        <v>989.7116209018764</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442193</v>
+        <v>749.0539373442191</v>
       </c>
       <c r="F38" t="n">
         <v>489.0307829906255</v>
       </c>
       <c r="G38" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189935</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="J38" t="n">
         <v>171.7485537137827</v>
@@ -7190,13 +7190,13 @@
         <v>2267.073599321051</v>
       </c>
       <c r="P38" t="n">
-        <v>2571.932483898478</v>
+        <v>2571.932483898479</v>
       </c>
       <c r="Q38" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331495</v>
       </c>
       <c r="R38" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331495</v>
       </c>
       <c r="S38" t="n">
         <v>2703.265184067727</v>
@@ -7211,13 +7211,13 @@
         <v>2351.851591887516</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081354</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939083</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="J39" t="n">
         <v>141.6963688081575</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.58900179270634</v>
+        <v>87.58900179270644</v>
       </c>
       <c r="C40" t="n">
-        <v>72.10106859062267</v>
+        <v>72.10106859062275</v>
       </c>
       <c r="D40" t="n">
-        <v>72.10106859062267</v>
+        <v>72.10106859062275</v>
       </c>
       <c r="E40" t="n">
-        <v>72.10106859062267</v>
+        <v>72.10106859062275</v>
       </c>
       <c r="F40" t="n">
-        <v>72.10106859062267</v>
+        <v>72.10106859062275</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000766</v>
+        <v>57.5534741300077</v>
       </c>
       <c r="H40" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="I40" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="K40" t="n">
         <v>115.8811315531961</v>
@@ -7357,25 +7357,25 @@
         <v>786.7816674983819</v>
       </c>
       <c r="S40" t="n">
-        <v>711.7402732042506</v>
+        <v>711.7402732042509</v>
       </c>
       <c r="T40" t="n">
-        <v>633.7324052888064</v>
+        <v>633.7324052888067</v>
       </c>
       <c r="U40" t="n">
-        <v>500.6835176324313</v>
+        <v>500.6835176324317</v>
       </c>
       <c r="V40" t="n">
-        <v>394.07624952709</v>
+        <v>394.0762495270903</v>
       </c>
       <c r="W40" t="n">
-        <v>262.0478843807252</v>
+        <v>262.0478843807254</v>
       </c>
       <c r="X40" t="n">
-        <v>184.923456612337</v>
+        <v>184.9234566123372</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.0163341408501</v>
+        <v>117.0163341408503</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018761</v>
+        <v>989.7116209018764</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442191</v>
+        <v>749.0539373442193</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906256</v>
+        <v>489.0307829906258</v>
       </c>
       <c r="G41" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7485537137828</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932084</v>
+        <v>479.7379918932082</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7961311430093</v>
+        <v>911.7961311430092</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110224</v>
@@ -7427,13 +7427,13 @@
         <v>2267.073599321051</v>
       </c>
       <c r="P41" t="n">
-        <v>2571.932483898478</v>
+        <v>2571.932483898479</v>
       </c>
       <c r="Q41" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331495</v>
       </c>
       <c r="R41" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331495</v>
       </c>
       <c r="S41" t="n">
         <v>2703.265184067727</v>
@@ -7448,7 +7448,7 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X41" t="n">
         <v>1915.542593939082</v>
@@ -7485,7 +7485,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="J42" t="n">
         <v>141.6963688081575</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.589001792706</v>
+        <v>87.58900179270617</v>
       </c>
       <c r="C43" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="D43" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="E43" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="F43" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="G43" t="n">
-        <v>57.55347413000754</v>
+        <v>57.55347413000761</v>
       </c>
       <c r="H43" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="I43" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662989</v>
+        <v>54.4792947266299</v>
       </c>
       <c r="K43" t="n">
         <v>115.8811315531961</v>
@@ -7588,31 +7588,31 @@
         <v>786.7816674983819</v>
       </c>
       <c r="Q43" t="n">
-        <v>768.6858659787846</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="R43" t="n">
-        <v>768.6858659787846</v>
+        <v>786.7816674983819</v>
       </c>
       <c r="S43" t="n">
-        <v>711.7402732042494</v>
+        <v>711.7402732042501</v>
       </c>
       <c r="T43" t="n">
-        <v>633.7324052888054</v>
+        <v>633.7324052888059</v>
       </c>
       <c r="U43" t="n">
-        <v>500.6835176324304</v>
+        <v>500.6835176324309</v>
       </c>
       <c r="V43" t="n">
-        <v>394.0762495270892</v>
+        <v>394.0762495270897</v>
       </c>
       <c r="W43" t="n">
-        <v>262.0478843807245</v>
+        <v>262.0478843807248</v>
       </c>
       <c r="X43" t="n">
-        <v>184.9234566123364</v>
+        <v>184.9234566123367</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.0163341408497</v>
+        <v>117.0163341408499</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338415</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018759</v>
+        <v>989.711620901875</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442193</v>
+        <v>749.0539373442184</v>
       </c>
       <c r="F44" t="n">
-        <v>489.030782990626</v>
+        <v>489.0307829906251</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189934</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H44" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I44" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137813</v>
       </c>
       <c r="K44" t="n">
-        <v>479.7379918932082</v>
+        <v>479.7379918932069</v>
       </c>
       <c r="L44" t="n">
-        <v>911.7961311430092</v>
+        <v>911.7961311430079</v>
       </c>
       <c r="M44" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N44" t="n">
-        <v>1872.198988676085</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.073599321051</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P44" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q44" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R44" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S44" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U44" t="n">
-        <v>2534.702829655339</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V44" t="n">
         <v>2351.851591887515</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081351</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y44" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="45">
@@ -7719,19 +7719,19 @@
         <v>209.9618541874764</v>
       </c>
       <c r="H45" t="n">
-        <v>112.8362090731988</v>
+        <v>112.8362090731987</v>
       </c>
       <c r="I45" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J45" t="n">
-        <v>141.6963688081575</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K45" t="n">
-        <v>417.2708591405125</v>
+        <v>330.0537850589848</v>
       </c>
       <c r="L45" t="n">
-        <v>845.0582457564574</v>
+        <v>757.8411716749297</v>
       </c>
       <c r="M45" t="n">
         <v>938.9307320881593</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270617</v>
+        <v>87.58900179270614</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062256</v>
+        <v>72.10106859062253</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062256</v>
+        <v>72.10106859062253</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062256</v>
+        <v>72.10106859062253</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062256</v>
+        <v>72.10106859062253</v>
       </c>
       <c r="G46" t="n">
-        <v>57.5534741300076</v>
+        <v>57.55347413000758</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I46" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J46" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K46" t="n">
         <v>115.8811315531961</v>
       </c>
       <c r="L46" t="n">
-        <v>252.0596313827017</v>
+        <v>252.0596313827016</v>
       </c>
       <c r="M46" t="n">
         <v>407.558212871774</v>
@@ -7831,22 +7831,22 @@
         <v>786.7816674983819</v>
       </c>
       <c r="S46" t="n">
-        <v>711.7402732042501</v>
+        <v>731.4542493316516</v>
       </c>
       <c r="T46" t="n">
-        <v>633.7324052888059</v>
+        <v>653.4463814162074</v>
       </c>
       <c r="U46" t="n">
-        <v>500.6835176324309</v>
+        <v>520.3974937598324</v>
       </c>
       <c r="V46" t="n">
-        <v>394.0762495270897</v>
+        <v>413.7902256544911</v>
       </c>
       <c r="W46" t="n">
-        <v>262.0478843807248</v>
+        <v>281.7618605081263</v>
       </c>
       <c r="X46" t="n">
-        <v>184.9234566123367</v>
+        <v>204.6374327397382</v>
       </c>
       <c r="Y46" t="n">
         <v>117.0163341408499</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425141</v>
+        <v>349.2884508079962</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>547.3811427999653</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.441556107355</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.82029131472578</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8778,16 +8778,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869877</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>53.80710347724191</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>253.239760479454</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.8391489829795</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8933,7 +8933,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>584.3675935406823</v>
+        <v>393.8132110494444</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.441556107355</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>154.9918226869882</v>
+        <v>351.1546355601953</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339636</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>547.3811427999658</v>
+        <v>393.8132110494444</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.441556107355</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>75.82029131472578</v>
+        <v>75.82029131472579</v>
       </c>
       <c r="K18" t="n">
-        <v>65.44673707356941</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9255,13 +9255,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>328.1286186011297</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>171.4033357675611</v>
+        <v>76.93766118339636</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,13 +9401,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>230.8346538512762</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>393.8132110494444</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.8391489829777</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9644,7 +9644,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>584.3675935406823</v>
+        <v>393.8132110494444</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.441556107355</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>154.9918226869863</v>
+        <v>154.9918226869877</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472579</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9960,7 +9960,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>137.2633189153673</v>
+        <v>225.3613735431731</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>154.9918226869867</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,13 +10425,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472579</v>
       </c>
       <c r="K33" t="n">
-        <v>307.7600154859568</v>
+        <v>65.44673707356941</v>
       </c>
       <c r="L33" t="n">
-        <v>49.98397756525972</v>
+        <v>380.3953106054531</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10668,16 +10668,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>478.6877368183347</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>154.9918226869868</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>47.27246317627809</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10838,7 +10838,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236946</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406818</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472579</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11382,7 +11382,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>137.2633189153671</v>
+        <v>225.3613735431729</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>280.0985927864969</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H11" t="n">
-        <v>234.9781829577618</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.32070768241294</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545161</v>
+        <v>84.08218037545154</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.7597296842796</v>
       </c>
       <c r="U11" t="n">
-        <v>24.65403519598264</v>
+        <v>5.94307764856255</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244663</v>
+        <v>244.6123490244662</v>
       </c>
       <c r="W11" t="n">
-        <v>269.9124485024232</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438469</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196308</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774253</v>
+        <v>61.49179175774245</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>11.22569834783289</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>118.9404214419662</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>130.8176748810938</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>279.9092005789454</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419688</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864968</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351697</v>
+        <v>267.314201109282</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898414</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.49179175774255</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.95871608592886</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033067</v>
+        <v>37.15658818372606</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366579</v>
+        <v>66.63306124366588</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227644</v>
+        <v>46.49600542227653</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.16276991271694</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>38.0554411307978</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1232925.166117124</v>
+        <v>1232925.166117123</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114881.4947260956</v>
+        <v>114881.4947260957</v>
       </c>
       <c r="C2" t="n">
         <v>114881.4947260956</v>
@@ -26329,7 +26329,7 @@
         <v>115143.6090741273</v>
       </c>
       <c r="H2" t="n">
-        <v>115143.6090741272</v>
+        <v>115143.6090741273</v>
       </c>
       <c r="I2" t="n">
         <v>115143.6090741272</v>
@@ -26341,7 +26341,7 @@
         <v>115143.6090741274</v>
       </c>
       <c r="L2" t="n">
-        <v>115143.6090741274</v>
+        <v>115143.6090741273</v>
       </c>
       <c r="M2" t="n">
         <v>115143.6090741273</v>
@@ -26350,7 +26350,7 @@
         <v>115143.6090741272</v>
       </c>
       <c r="O2" t="n">
-        <v>115143.6090741272</v>
+        <v>115143.6090741273</v>
       </c>
       <c r="P2" t="n">
         <v>115143.6090741272</v>
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>367830.3395149716</v>
+        <v>367830.3395149717</v>
       </c>
       <c r="F3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915238</v>
+        <v>61543.83320915241</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613919</v>
+        <v>83547.74167613933</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915236</v>
+        <v>61543.83320915233</v>
       </c>
       <c r="M3" t="n">
         <v>149683.3109415066</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561256</v>
+        <v>20455.48779561271</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>401607.4064143078</v>
       </c>
       <c r="E4" t="n">
+        <v>255024.1601164463</v>
+      </c>
+      <c r="F4" t="n">
         <v>255024.1601164462</v>
-      </c>
-      <c r="F4" t="n">
-        <v>255024.1601164463</v>
       </c>
       <c r="G4" t="n">
         <v>310950.7206745581</v>
       </c>
       <c r="H4" t="n">
-        <v>310950.7206745582</v>
+        <v>310950.7206745581</v>
       </c>
       <c r="I4" t="n">
-        <v>310950.7206745582</v>
+        <v>310950.7206745581</v>
       </c>
       <c r="J4" t="n">
         <v>309193.0084127063</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>48881.83299975546</v>
+      </c>
+      <c r="F5" t="n">
         <v>48881.83299975545</v>
       </c>
-      <c r="F5" t="n">
-        <v>48881.83299975547</v>
-      </c>
       <c r="G5" t="n">
-        <v>55349.24364233076</v>
+        <v>55349.24364233074</v>
       </c>
       <c r="H5" t="n">
-        <v>55349.24364233077</v>
+        <v>55349.24364233075</v>
       </c>
       <c r="I5" t="n">
-        <v>55349.24364233074</v>
+        <v>55349.24364233075</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462554</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
-        <v>64678.11138462555</v>
+        <v>64678.11138462553</v>
       </c>
       <c r="L5" t="n">
-        <v>64678.11138462555</v>
+        <v>64678.11138462552</v>
       </c>
       <c r="M5" t="n">
-        <v>57153.73105654695</v>
+        <v>57153.73105654696</v>
       </c>
       <c r="N5" t="n">
-        <v>57153.73105654695</v>
+        <v>57153.73105654696</v>
       </c>
       <c r="O5" t="n">
         <v>57153.73105654697</v>
       </c>
       <c r="P5" t="n">
-        <v>57153.73105654696</v>
+        <v>57153.73105654695</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-320353.5116882122</v>
+        <v>-320357.8802606793</v>
       </c>
       <c r="C6" t="n">
-        <v>-320353.511688212</v>
+        <v>-320357.8802606792</v>
       </c>
       <c r="D6" t="n">
-        <v>-320353.5116882121</v>
+        <v>-320357.8802606793</v>
       </c>
       <c r="E6" t="n">
-        <v>-571343.3129132083</v>
+        <v>-571589.1560691445</v>
       </c>
       <c r="F6" t="n">
-        <v>-203512.9733982369</v>
+        <v>-203758.8165541727</v>
       </c>
       <c r="G6" t="n">
         <v>-312700.1884519139</v>
       </c>
       <c r="H6" t="n">
-        <v>-251156.3552427618</v>
+        <v>-251156.3552427616</v>
       </c>
       <c r="I6" t="n">
-        <v>-251156.3552427617</v>
+        <v>-251156.3552427616</v>
       </c>
       <c r="J6" t="n">
-        <v>-342275.2523993436</v>
+        <v>-342275.2523993438</v>
       </c>
       <c r="K6" t="n">
         <v>-258727.5107232045</v>
       </c>
       <c r="L6" t="n">
-        <v>-320271.3439323568</v>
+        <v>-320271.3439323569</v>
       </c>
       <c r="M6" t="n">
-        <v>-399869.7691896865</v>
+        <v>-399869.7691896863</v>
       </c>
       <c r="N6" t="n">
         <v>-250186.4582481798</v>
       </c>
       <c r="O6" t="n">
-        <v>-270641.9460437924</v>
+        <v>-270641.9460437925</v>
       </c>
       <c r="P6" t="n">
         <v>-250186.4582481799</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="G2" t="n">
+        <v>165.9269238499923</v>
+      </c>
+      <c r="H2" t="n">
         <v>165.9269238499924</v>
       </c>
-      <c r="H2" t="n">
-        <v>165.9269238499925</v>
-      </c>
       <c r="I2" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="J2" t="n">
         <v>102.4991512559563</v>
       </c>
       <c r="K2" t="n">
+        <v>102.4991512559564</v>
+      </c>
+      <c r="L2" t="n">
         <v>102.4991512559563</v>
       </c>
-      <c r="L2" t="n">
-        <v>102.4991512559562</v>
-      </c>
       <c r="M2" t="n">
+        <v>152.5867559728736</v>
+      </c>
+      <c r="N2" t="n">
+        <v>152.5867559728736</v>
+      </c>
+      <c r="O2" t="n">
         <v>152.5867559728737</v>
-      </c>
-      <c r="N2" t="n">
-        <v>152.5867559728737</v>
-      </c>
-      <c r="O2" t="n">
-        <v>152.5867559728738</v>
       </c>
       <c r="P2" t="n">
         <v>152.5867559728737</v>
@@ -26762,7 +26762,7 @@
         <v>134.0206915791159</v>
       </c>
       <c r="K3" t="n">
-        <v>134.0206915791161</v>
+        <v>134.0206915791159</v>
       </c>
       <c r="L3" t="n">
         <v>134.0206915791159</v>
@@ -26799,37 +26799,37 @@
         <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="G4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="H4" t="n">
         <v>632.8664803414641</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8664803414638</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207866</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="K4" t="n">
-        <v>874.0042625207867</v>
+        <v>874.0042625207864</v>
       </c>
       <c r="L4" t="n">
-        <v>874.0042625207867</v>
+        <v>874.0042625207864</v>
       </c>
       <c r="M4" t="n">
-        <v>680.9911840828736</v>
+        <v>680.9911840828737</v>
       </c>
       <c r="N4" t="n">
-        <v>680.9911840828736</v>
+        <v>680.9911840828737</v>
       </c>
       <c r="O4" t="n">
-        <v>680.9911840828736</v>
+        <v>680.9911840828737</v>
       </c>
       <c r="P4" t="n">
-        <v>680.9911840828736</v>
+        <v>680.9911840828734</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="F2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144048</v>
+        <v>76.92979151144051</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451558</v>
+        <v>25.56935974451581</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144046</v>
+        <v>76.92979151144041</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691761</v>
+        <v>50.08760471691744</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451569</v>
+        <v>25.56935974451589</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793228</v>
+        <v>241.1377821793226</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.853401903551</v>
+        <v>439.8534019035515</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144048</v>
+        <v>76.92979151144051</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451558</v>
+        <v>25.56935974451581</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.88797492591266</v>
+        <v>55.88797492591267</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
     </row>
     <row r="12">
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855189</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.88797492591266</v>
+        <v>55.88797492591267</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
     </row>
     <row r="15">
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855188</v>
+        <v>88.99713233855179</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="I17" t="n">
         <v>150.3178400209648</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.88797492591266</v>
+        <v>55.88797492591267</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103334932</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="H19" t="n">
         <v>155.6301935822177</v>
@@ -28770,25 +28770,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>9.964971103334534</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9269238499924</v>
+        <v>165.9269238499923</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I20" t="n">
         <v>150.3178400209648</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.88797492591266</v>
+        <v>55.88797492591267</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9269238499925</v>
+        <v>27.87981460773591</v>
       </c>
       <c r="H22" t="n">
         <v>155.6301935822177</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440135</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U22" t="n">
-        <v>9.964971103333596</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I23" t="n">
         <v>150.3178400209648</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.88797492591266</v>
+        <v>55.88797492591267</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="24">
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.450218385609332e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29193,22 +29193,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4828197741157</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H25" t="n">
         <v>155.6301935822177</v>
@@ -29217,7 +29217,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J25" t="n">
-        <v>42.37012655389057</v>
+        <v>37.36402223171342</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="26">
@@ -29311,10 +29311,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1485704102003069</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102008185</v>
       </c>
       <c r="Q26" t="n">
         <v>102.4991512559563</v>
@@ -29472,7 +29472,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4991512559564</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q28" t="n">
         <v>102.4991512559563</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="C29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="D29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="E29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="F29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="G29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="H29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="I29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="J29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="K29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="L29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1485704102003638</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="N29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="O29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704101994543</v>
       </c>
       <c r="P29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="R29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="S29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="T29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="U29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="V29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="W29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="X29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="C31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="D31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="E31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="F31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="G31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="H31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="I31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="J31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="K31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="L31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="M31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559542</v>
       </c>
       <c r="N31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="O31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="P31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="R31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="S31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="T31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="U31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="V31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="W31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="X31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L32" t="n">
-        <v>102.4991512559562</v>
+        <v>0.148570410199909</v>
       </c>
       <c r="M32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O32" t="n">
-        <v>0.1485704102012164</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4991512559571</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="I35" t="n">
         <v>150.3178400209648</v>
@@ -30034,25 +30034,25 @@
         <v>55.88797492591267</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,10 +30156,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="H37" t="n">
-        <v>133.0699196067465</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
@@ -30192,25 +30192,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067471</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="C38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="D38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="E38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="F38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="G38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="H38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="I38" t="n">
         <v>150.3178400209648</v>
@@ -30271,25 +30271,25 @@
         <v>55.88797492591267</v>
       </c>
       <c r="S38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="T38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="U38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="V38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="W38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="X38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,10 +30393,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="H40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="I40" t="n">
         <v>135.4931377608283</v>
@@ -30429,25 +30429,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S40" t="n">
-        <v>133.0699196067467</v>
+        <v>133.0699196067471</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="U40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="V40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="W40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="X40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.5867559728737</v>
+        <v>152.5867559728736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I41" t="n">
         <v>150.3178400209648</v>
@@ -30508,25 +30508,25 @@
         <v>55.88797492591267</v>
       </c>
       <c r="S41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,10 +30630,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I43" t="n">
         <v>135.4931377608283</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>17.91484350440135</v>
       </c>
       <c r="R43" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9847631111469</v>
+        <v>133.0699196067463</v>
       </c>
       <c r="T43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="44">
@@ -30903,7 +30903,7 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S46" t="n">
-        <v>133.0699196067463</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T46" t="n">
         <v>152.5867559728737</v>
@@ -30921,7 +30921,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067462</v>
       </c>
     </row>
   </sheetData>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642847</v>
+        <v>0.5387766495642846</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350232</v>
+        <v>5.517746362350231</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77118678232711</v>
+        <v>20.7711867823271</v>
       </c>
       <c r="J11" t="n">
-        <v>45.72799466095675</v>
+        <v>45.72799466095674</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701293</v>
+        <v>68.53441023701292</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611593</v>
+        <v>85.02299612611591</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780478</v>
+        <v>94.60446536780475</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337931</v>
+        <v>96.13526452337929</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427444</v>
+        <v>90.77780421427443</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815615</v>
+        <v>77.47675567815614</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.18181691563519</v>
+        <v>58.18181691563517</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319253</v>
+        <v>33.84392871319252</v>
       </c>
       <c r="S11" t="n">
         <v>12.27737290194615</v>
@@ -31792,7 +31792,7 @@
         <v>2.358494783467657</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04310213196514277</v>
+        <v>0.04310213196514276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,40 +31829,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882709215097965</v>
+        <v>0.2882709215097964</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634088</v>
+        <v>2.784090215634087</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736417</v>
+        <v>9.925117253736413</v>
       </c>
       <c r="J12" t="n">
-        <v>27.23528035194091</v>
+        <v>27.2352803519409</v>
       </c>
       <c r="K12" t="n">
         <v>46.54943209309727</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588806</v>
+        <v>62.59145600588805</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061817</v>
+        <v>73.04127691061815</v>
       </c>
       <c r="N12" t="n">
-        <v>74.97446216933957</v>
+        <v>74.97446216933956</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483303</v>
+        <v>68.58698543483301</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690141</v>
+        <v>55.0471025469014</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149614</v>
+        <v>36.79753026149613</v>
       </c>
       <c r="R12" t="n">
-        <v>17.89808405654685</v>
+        <v>17.89808405654684</v>
       </c>
       <c r="S12" t="n">
         <v>5.354505932429769</v>
@@ -31911,10 +31911,10 @@
         <v>0.2416766569459467</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148725186301237</v>
+        <v>2.148725186301236</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519927</v>
+        <v>7.267876192519926</v>
       </c>
       <c r="J13" t="n">
         <v>17.08653964607843</v>
@@ -31926,25 +31926,25 @@
         <v>35.93072770630921</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653599</v>
+        <v>37.88391450653598</v>
       </c>
       <c r="N13" t="n">
-        <v>36.98311969428294</v>
+        <v>36.98311969428293</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15989692905074</v>
+        <v>34.15989692905073</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2296931273534</v>
+        <v>29.22969312735339</v>
       </c>
       <c r="Q13" t="n">
         <v>20.2371244284465</v>
       </c>
       <c r="R13" t="n">
-        <v>10.86666132049684</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412543</v>
+        <v>4.211765012412542</v>
       </c>
       <c r="T13" t="n">
         <v>1.032618443314499</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642847</v>
+        <v>0.5387766495642846</v>
       </c>
       <c r="H14" t="n">
-        <v>5.517746362350232</v>
+        <v>5.517746362350231</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77118678232711</v>
+        <v>20.7711867823271</v>
       </c>
       <c r="J14" t="n">
-        <v>45.72799466095675</v>
+        <v>45.72799466095674</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701293</v>
+        <v>68.53441023701292</v>
       </c>
       <c r="L14" t="n">
-        <v>85.02299612611593</v>
+        <v>85.02299612611591</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780478</v>
+        <v>94.60446536780475</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337931</v>
+        <v>96.13526452337929</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427444</v>
+        <v>90.77780421427443</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815615</v>
+        <v>77.47675567815614</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.18181691563519</v>
+        <v>58.18181691563517</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319253</v>
+        <v>33.84392871319252</v>
       </c>
       <c r="S14" t="n">
         <v>12.27737290194615</v>
@@ -32029,7 +32029,7 @@
         <v>2.358494783467657</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04310213196514277</v>
+        <v>0.04310213196514276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,40 +32066,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2882709215097965</v>
+        <v>0.2882709215097964</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634088</v>
+        <v>2.784090215634087</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736417</v>
+        <v>9.925117253736413</v>
       </c>
       <c r="J15" t="n">
-        <v>27.23528035194091</v>
+        <v>27.2352803519409</v>
       </c>
       <c r="K15" t="n">
         <v>46.54943209309727</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588806</v>
+        <v>62.59145600588805</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061817</v>
+        <v>73.04127691061815</v>
       </c>
       <c r="N15" t="n">
-        <v>74.97446216933957</v>
+        <v>74.97446216933956</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483303</v>
+        <v>68.58698543483301</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690141</v>
+        <v>55.0471025469014</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79753026149614</v>
+        <v>36.79753026149613</v>
       </c>
       <c r="R15" t="n">
-        <v>17.89808405654685</v>
+        <v>17.89808405654684</v>
       </c>
       <c r="S15" t="n">
         <v>5.354505932429769</v>
@@ -32148,10 +32148,10 @@
         <v>0.2416766569459467</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148725186301237</v>
+        <v>2.148725186301236</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519927</v>
+        <v>7.267876192519926</v>
       </c>
       <c r="J16" t="n">
         <v>17.08653964607843</v>
@@ -32163,25 +32163,25 @@
         <v>35.93072770630921</v>
       </c>
       <c r="M16" t="n">
-        <v>37.88391450653599</v>
+        <v>37.88391450653598</v>
       </c>
       <c r="N16" t="n">
-        <v>36.98311969428294</v>
+        <v>36.98311969428293</v>
       </c>
       <c r="O16" t="n">
-        <v>34.15989692905074</v>
+        <v>34.15989692905073</v>
       </c>
       <c r="P16" t="n">
-        <v>29.2296931273534</v>
+        <v>29.22969312735339</v>
       </c>
       <c r="Q16" t="n">
         <v>20.2371244284465</v>
       </c>
       <c r="R16" t="n">
-        <v>10.86666132049684</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412543</v>
+        <v>4.211765012412542</v>
       </c>
       <c r="T16" t="n">
         <v>1.032618443314499</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642847</v>
+        <v>0.5387766495642846</v>
       </c>
       <c r="H17" t="n">
-        <v>5.517746362350232</v>
+        <v>5.517746362350231</v>
       </c>
       <c r="I17" t="n">
-        <v>20.77118678232711</v>
+        <v>20.7711867823271</v>
       </c>
       <c r="J17" t="n">
-        <v>45.72799466095675</v>
+        <v>45.72799466095674</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701293</v>
+        <v>68.53441023701292</v>
       </c>
       <c r="L17" t="n">
-        <v>85.02299612611593</v>
+        <v>85.02299612611591</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780478</v>
+        <v>94.60446536780475</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337931</v>
+        <v>96.13526452337929</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427444</v>
+        <v>90.77780421427443</v>
       </c>
       <c r="P17" t="n">
-        <v>77.47675567815615</v>
+        <v>77.47675567815614</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.18181691563519</v>
+        <v>58.18181691563517</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319253</v>
+        <v>33.84392871319252</v>
       </c>
       <c r="S17" t="n">
         <v>12.27737290194615</v>
@@ -32266,7 +32266,7 @@
         <v>2.358494783467657</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04310213196514277</v>
+        <v>0.04310213196514276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,40 +32303,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2882709215097965</v>
+        <v>0.2882709215097964</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634088</v>
+        <v>2.784090215634087</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736417</v>
+        <v>9.925117253736413</v>
       </c>
       <c r="J18" t="n">
-        <v>27.23528035194091</v>
+        <v>27.2352803519409</v>
       </c>
       <c r="K18" t="n">
         <v>46.54943209309727</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588806</v>
+        <v>62.59145600588805</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061817</v>
+        <v>73.04127691061815</v>
       </c>
       <c r="N18" t="n">
-        <v>74.97446216933957</v>
+        <v>74.97446216933956</v>
       </c>
       <c r="O18" t="n">
-        <v>68.58698543483303</v>
+        <v>68.58698543483301</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690141</v>
+        <v>55.0471025469014</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149614</v>
+        <v>36.79753026149613</v>
       </c>
       <c r="R18" t="n">
-        <v>17.89808405654685</v>
+        <v>17.89808405654684</v>
       </c>
       <c r="S18" t="n">
         <v>5.354505932429769</v>
@@ -32385,10 +32385,10 @@
         <v>0.2416766569459467</v>
       </c>
       <c r="H19" t="n">
-        <v>2.148725186301237</v>
+        <v>2.148725186301236</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519927</v>
+        <v>7.267876192519926</v>
       </c>
       <c r="J19" t="n">
         <v>17.08653964607843</v>
@@ -32400,25 +32400,25 @@
         <v>35.93072770630921</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653599</v>
+        <v>37.88391450653598</v>
       </c>
       <c r="N19" t="n">
-        <v>36.98311969428294</v>
+        <v>36.98311969428293</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15989692905074</v>
+        <v>34.15989692905073</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2296931273534</v>
+        <v>29.22969312735339</v>
       </c>
       <c r="Q19" t="n">
         <v>20.2371244284465</v>
       </c>
       <c r="R19" t="n">
-        <v>10.86666132049684</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412543</v>
+        <v>4.211765012412542</v>
       </c>
       <c r="T19" t="n">
         <v>1.032618443314499</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642847</v>
+        <v>0.5387766495642846</v>
       </c>
       <c r="H20" t="n">
-        <v>5.517746362350232</v>
+        <v>5.517746362350231</v>
       </c>
       <c r="I20" t="n">
-        <v>20.77118678232711</v>
+        <v>20.7711867823271</v>
       </c>
       <c r="J20" t="n">
-        <v>45.72799466095675</v>
+        <v>45.72799466095674</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701293</v>
+        <v>68.53441023701292</v>
       </c>
       <c r="L20" t="n">
-        <v>85.02299612611593</v>
+        <v>85.02299612611591</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780478</v>
+        <v>94.60446536780475</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337931</v>
+        <v>96.13526452337929</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427444</v>
+        <v>90.77780421427443</v>
       </c>
       <c r="P20" t="n">
-        <v>77.47675567815615</v>
+        <v>77.47675567815614</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.18181691563519</v>
+        <v>58.18181691563517</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319253</v>
+        <v>33.84392871319252</v>
       </c>
       <c r="S20" t="n">
         <v>12.27737290194615</v>
@@ -32503,7 +32503,7 @@
         <v>2.358494783467657</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04310213196514277</v>
+        <v>0.04310213196514276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,40 +32540,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2882709215097965</v>
+        <v>0.2882709215097964</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634088</v>
+        <v>2.784090215634087</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736417</v>
+        <v>9.925117253736413</v>
       </c>
       <c r="J21" t="n">
-        <v>27.23528035194091</v>
+        <v>27.2352803519409</v>
       </c>
       <c r="K21" t="n">
         <v>46.54943209309727</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588806</v>
+        <v>62.59145600588805</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061817</v>
+        <v>73.04127691061815</v>
       </c>
       <c r="N21" t="n">
-        <v>74.97446216933957</v>
+        <v>74.97446216933956</v>
       </c>
       <c r="O21" t="n">
-        <v>68.58698543483303</v>
+        <v>68.58698543483301</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690141</v>
+        <v>55.0471025469014</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149614</v>
+        <v>36.79753026149613</v>
       </c>
       <c r="R21" t="n">
-        <v>17.89808405654685</v>
+        <v>17.89808405654684</v>
       </c>
       <c r="S21" t="n">
         <v>5.354505932429769</v>
@@ -32622,10 +32622,10 @@
         <v>0.2416766569459467</v>
       </c>
       <c r="H22" t="n">
-        <v>2.148725186301237</v>
+        <v>2.148725186301236</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519927</v>
+        <v>7.267876192519926</v>
       </c>
       <c r="J22" t="n">
         <v>17.08653964607843</v>
@@ -32637,25 +32637,25 @@
         <v>35.93072770630921</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653599</v>
+        <v>37.88391450653598</v>
       </c>
       <c r="N22" t="n">
-        <v>36.98311969428294</v>
+        <v>36.98311969428293</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15989692905074</v>
+        <v>34.15989692905073</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2296931273534</v>
+        <v>29.22969312735339</v>
       </c>
       <c r="Q22" t="n">
         <v>20.2371244284465</v>
       </c>
       <c r="R22" t="n">
-        <v>10.86666132049684</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412543</v>
+        <v>4.211765012412542</v>
       </c>
       <c r="T22" t="n">
         <v>1.032618443314499</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642847</v>
+        <v>0.5387766495642846</v>
       </c>
       <c r="H23" t="n">
-        <v>5.517746362350232</v>
+        <v>5.517746362350231</v>
       </c>
       <c r="I23" t="n">
-        <v>20.77118678232711</v>
+        <v>20.7711867823271</v>
       </c>
       <c r="J23" t="n">
-        <v>45.72799466095675</v>
+        <v>45.72799466095674</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701293</v>
+        <v>68.53441023701292</v>
       </c>
       <c r="L23" t="n">
-        <v>85.02299612611593</v>
+        <v>85.02299612611591</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780478</v>
+        <v>94.60446536780475</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337931</v>
+        <v>96.13526452337929</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427444</v>
+        <v>90.77780421427443</v>
       </c>
       <c r="P23" t="n">
-        <v>77.47675567815615</v>
+        <v>77.47675567815614</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.18181691563519</v>
+        <v>58.18181691563517</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319253</v>
+        <v>33.84392871319252</v>
       </c>
       <c r="S23" t="n">
         <v>12.27737290194615</v>
@@ -32740,7 +32740,7 @@
         <v>2.358494783467657</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04310213196514277</v>
+        <v>0.04310213196514276</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,40 +32777,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2882709215097965</v>
+        <v>0.2882709215097964</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634088</v>
+        <v>2.784090215634087</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736417</v>
+        <v>9.925117253736413</v>
       </c>
       <c r="J24" t="n">
-        <v>27.23528035194091</v>
+        <v>27.2352803519409</v>
       </c>
       <c r="K24" t="n">
         <v>46.54943209309727</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588806</v>
+        <v>62.59145600588805</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061817</v>
+        <v>73.04127691061815</v>
       </c>
       <c r="N24" t="n">
-        <v>74.97446216933957</v>
+        <v>74.97446216933956</v>
       </c>
       <c r="O24" t="n">
-        <v>68.58698543483303</v>
+        <v>68.58698543483301</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690141</v>
+        <v>55.0471025469014</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149614</v>
+        <v>36.79753026149613</v>
       </c>
       <c r="R24" t="n">
-        <v>17.89808405654685</v>
+        <v>17.89808405654684</v>
       </c>
       <c r="S24" t="n">
         <v>5.354505932429769</v>
@@ -32859,10 +32859,10 @@
         <v>0.2416766569459467</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148725186301237</v>
+        <v>2.148725186301236</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519927</v>
+        <v>7.267876192519926</v>
       </c>
       <c r="J25" t="n">
         <v>17.08653964607843</v>
@@ -32874,25 +32874,25 @@
         <v>35.93072770630921</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653599</v>
+        <v>37.88391450653598</v>
       </c>
       <c r="N25" t="n">
-        <v>36.98311969428294</v>
+        <v>36.98311969428293</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15989692905074</v>
+        <v>34.15989692905073</v>
       </c>
       <c r="P25" t="n">
-        <v>29.2296931273534</v>
+        <v>29.22969312735339</v>
       </c>
       <c r="Q25" t="n">
         <v>20.2371244284465</v>
       </c>
       <c r="R25" t="n">
-        <v>10.86666132049684</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412543</v>
+        <v>4.211765012412542</v>
       </c>
       <c r="T25" t="n">
         <v>1.032618443314499</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642847</v>
+        <v>0.5387766495642846</v>
       </c>
       <c r="H26" t="n">
-        <v>5.517746362350232</v>
+        <v>5.517746362350231</v>
       </c>
       <c r="I26" t="n">
-        <v>20.77118678232711</v>
+        <v>20.7711867823271</v>
       </c>
       <c r="J26" t="n">
-        <v>45.72799466095675</v>
+        <v>45.72799466095674</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701293</v>
+        <v>68.53441023701292</v>
       </c>
       <c r="L26" t="n">
-        <v>85.02299612611593</v>
+        <v>85.02299612611591</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780478</v>
+        <v>94.60446536780475</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337931</v>
+        <v>96.13526452337929</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427444</v>
+        <v>90.77780421427443</v>
       </c>
       <c r="P26" t="n">
-        <v>77.47675567815615</v>
+        <v>77.47675567815614</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.18181691563519</v>
+        <v>58.18181691563517</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319253</v>
+        <v>33.84392871319252</v>
       </c>
       <c r="S26" t="n">
         <v>12.27737290194615</v>
@@ -32977,7 +32977,7 @@
         <v>2.358494783467657</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04310213196514277</v>
+        <v>0.04310213196514276</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,40 +33014,40 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2882709215097965</v>
+        <v>0.2882709215097964</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634088</v>
+        <v>2.784090215634087</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736417</v>
+        <v>9.925117253736413</v>
       </c>
       <c r="J27" t="n">
-        <v>27.23528035194091</v>
+        <v>27.2352803519409</v>
       </c>
       <c r="K27" t="n">
         <v>46.54943209309727</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588806</v>
+        <v>62.59145600588805</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061817</v>
+        <v>73.04127691061815</v>
       </c>
       <c r="N27" t="n">
-        <v>74.97446216933957</v>
+        <v>74.97446216933956</v>
       </c>
       <c r="O27" t="n">
-        <v>68.58698543483303</v>
+        <v>68.58698543483301</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690141</v>
+        <v>55.0471025469014</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149614</v>
+        <v>36.79753026149613</v>
       </c>
       <c r="R27" t="n">
-        <v>17.89808405654685</v>
+        <v>17.89808405654684</v>
       </c>
       <c r="S27" t="n">
         <v>5.354505932429769</v>
@@ -33096,10 +33096,10 @@
         <v>0.2416766569459467</v>
       </c>
       <c r="H28" t="n">
-        <v>2.148725186301237</v>
+        <v>2.148725186301236</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519927</v>
+        <v>7.267876192519926</v>
       </c>
       <c r="J28" t="n">
         <v>17.08653964607843</v>
@@ -33111,25 +33111,25 @@
         <v>35.93072770630921</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653599</v>
+        <v>37.88391450653598</v>
       </c>
       <c r="N28" t="n">
-        <v>36.98311969428294</v>
+        <v>36.98311969428293</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15989692905074</v>
+        <v>34.15989692905073</v>
       </c>
       <c r="P28" t="n">
-        <v>29.2296931273534</v>
+        <v>29.22969312735339</v>
       </c>
       <c r="Q28" t="n">
         <v>20.2371244284465</v>
       </c>
       <c r="R28" t="n">
-        <v>10.86666132049684</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412543</v>
+        <v>4.211765012412542</v>
       </c>
       <c r="T28" t="n">
         <v>1.032618443314499</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5387766495642853</v>
+        <v>0.5387766495642846</v>
       </c>
       <c r="H29" t="n">
-        <v>5.517746362350238</v>
+        <v>5.517746362350231</v>
       </c>
       <c r="I29" t="n">
-        <v>20.77118678232713</v>
+        <v>20.7711867823271</v>
       </c>
       <c r="J29" t="n">
-        <v>45.7279946609568</v>
+        <v>45.72799466095674</v>
       </c>
       <c r="K29" t="n">
-        <v>68.53441023701301</v>
+        <v>68.53441023701292</v>
       </c>
       <c r="L29" t="n">
-        <v>85.02299612611601</v>
+        <v>85.02299612611591</v>
       </c>
       <c r="M29" t="n">
-        <v>94.60446536780488</v>
+        <v>94.60446536780475</v>
       </c>
       <c r="N29" t="n">
-        <v>96.1352645233794</v>
+        <v>96.13526452337929</v>
       </c>
       <c r="O29" t="n">
-        <v>90.77780421427454</v>
+        <v>90.77780421427443</v>
       </c>
       <c r="P29" t="n">
-        <v>77.47675567815624</v>
+        <v>77.47675567815614</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.18181691563525</v>
+        <v>58.18181691563517</v>
       </c>
       <c r="R29" t="n">
-        <v>33.84392871319256</v>
+        <v>33.84392871319252</v>
       </c>
       <c r="S29" t="n">
-        <v>12.27737290194616</v>
+        <v>12.27737290194615</v>
       </c>
       <c r="T29" t="n">
-        <v>2.35849478346766</v>
+        <v>2.358494783467657</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04310213196514281</v>
+        <v>0.04310213196514276</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2882709215097968</v>
+        <v>0.2882709215097964</v>
       </c>
       <c r="H30" t="n">
-        <v>2.784090215634091</v>
+        <v>2.784090215634087</v>
       </c>
       <c r="I30" t="n">
-        <v>9.925117253736428</v>
+        <v>9.925117253736413</v>
       </c>
       <c r="J30" t="n">
-        <v>27.23528035194094</v>
+        <v>27.2352803519409</v>
       </c>
       <c r="K30" t="n">
-        <v>46.54943209309732</v>
+        <v>46.54943209309727</v>
       </c>
       <c r="L30" t="n">
-        <v>62.59145600588813</v>
+        <v>62.59145600588805</v>
       </c>
       <c r="M30" t="n">
-        <v>73.04127691061824</v>
+        <v>73.04127691061815</v>
       </c>
       <c r="N30" t="n">
-        <v>74.97446216933966</v>
+        <v>74.97446216933956</v>
       </c>
       <c r="O30" t="n">
-        <v>68.5869854348331</v>
+        <v>68.58698543483301</v>
       </c>
       <c r="P30" t="n">
-        <v>55.04710254690147</v>
+        <v>55.0471025469014</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.79753026149617</v>
+        <v>36.79753026149613</v>
       </c>
       <c r="R30" t="n">
-        <v>17.89808405654686</v>
+        <v>17.89808405654684</v>
       </c>
       <c r="S30" t="n">
-        <v>5.354505932429775</v>
+        <v>5.354505932429769</v>
       </c>
       <c r="T30" t="n">
-        <v>1.161934109067996</v>
+        <v>1.161934109067995</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0189651922045919</v>
+        <v>0.01896519220459188</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.241676656945947</v>
+        <v>0.2416766569459467</v>
       </c>
       <c r="H31" t="n">
-        <v>2.148725186301239</v>
+        <v>2.148725186301236</v>
       </c>
       <c r="I31" t="n">
-        <v>7.267876192519934</v>
+        <v>7.267876192519926</v>
       </c>
       <c r="J31" t="n">
-        <v>17.08653964607845</v>
+        <v>17.08653964607843</v>
       </c>
       <c r="K31" t="n">
-        <v>28.07843341608365</v>
+        <v>28.07843341608362</v>
       </c>
       <c r="L31" t="n">
-        <v>35.93072770630925</v>
+        <v>35.93072770630921</v>
       </c>
       <c r="M31" t="n">
-        <v>37.88391450653603</v>
+        <v>37.88391450653598</v>
       </c>
       <c r="N31" t="n">
-        <v>36.98311969428298</v>
+        <v>36.98311969428293</v>
       </c>
       <c r="O31" t="n">
-        <v>34.15989692905077</v>
+        <v>34.15989692905073</v>
       </c>
       <c r="P31" t="n">
-        <v>29.22969312735343</v>
+        <v>29.22969312735339</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.23712442844652</v>
+        <v>20.2371244284465</v>
       </c>
       <c r="R31" t="n">
-        <v>10.86666132049685</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S31" t="n">
-        <v>4.211765012412547</v>
+        <v>4.211765012412542</v>
       </c>
       <c r="T31" t="n">
-        <v>1.0326184433145</v>
+        <v>1.032618443314499</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01318236310614258</v>
+        <v>0.01318236310614256</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642847</v>
+        <v>0.5387766495642846</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350232</v>
+        <v>5.517746362350231</v>
       </c>
       <c r="I32" t="n">
-        <v>20.77118678232711</v>
+        <v>20.7711867823271</v>
       </c>
       <c r="J32" t="n">
-        <v>45.72799466095675</v>
+        <v>45.72799466095674</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701293</v>
+        <v>68.53441023701292</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02299612611593</v>
+        <v>85.02299612611591</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780478</v>
+        <v>94.60446536780475</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337931</v>
+        <v>96.13526452337929</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427444</v>
+        <v>90.77780421427443</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815615</v>
+        <v>77.47675567815614</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.18181691563519</v>
+        <v>58.18181691563517</v>
       </c>
       <c r="R32" t="n">
-        <v>33.84392871319253</v>
+        <v>33.84392871319252</v>
       </c>
       <c r="S32" t="n">
         <v>12.27737290194615</v>
@@ -33451,7 +33451,7 @@
         <v>2.358494783467657</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04310213196514277</v>
+        <v>0.04310213196514276</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,40 +33488,40 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097965</v>
+        <v>0.2882709215097964</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634088</v>
+        <v>2.784090215634087</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736417</v>
+        <v>9.925117253736413</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194091</v>
+        <v>27.2352803519409</v>
       </c>
       <c r="K33" t="n">
         <v>46.54943209309727</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588806</v>
+        <v>62.59145600588805</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061817</v>
+        <v>73.04127691061815</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933957</v>
+        <v>74.97446216933956</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483303</v>
+        <v>68.58698543483301</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690141</v>
+        <v>55.0471025469014</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79753026149614</v>
+        <v>36.79753026149613</v>
       </c>
       <c r="R33" t="n">
-        <v>17.89808405654685</v>
+        <v>17.89808405654684</v>
       </c>
       <c r="S33" t="n">
         <v>5.354505932429769</v>
@@ -33570,10 +33570,10 @@
         <v>0.2416766569459467</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148725186301237</v>
+        <v>2.148725186301236</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519927</v>
+        <v>7.267876192519926</v>
       </c>
       <c r="J34" t="n">
         <v>17.08653964607843</v>
@@ -33585,25 +33585,25 @@
         <v>35.93072770630921</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653599</v>
+        <v>37.88391450653598</v>
       </c>
       <c r="N34" t="n">
-        <v>36.98311969428294</v>
+        <v>36.98311969428293</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905074</v>
+        <v>34.15989692905073</v>
       </c>
       <c r="P34" t="n">
-        <v>29.2296931273534</v>
+        <v>29.22969312735339</v>
       </c>
       <c r="Q34" t="n">
         <v>20.2371244284465</v>
       </c>
       <c r="R34" t="n">
-        <v>10.86666132049684</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412543</v>
+        <v>4.211765012412542</v>
       </c>
       <c r="T34" t="n">
         <v>1.032618443314499</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>311.1004426054803</v>
+        <v>238.9998570709624</v>
       </c>
       <c r="L11" t="n">
         <v>436.4223628785869</v>
       </c>
       <c r="M11" t="n">
-        <v>454.8292936706111</v>
+        <v>491.815744411328</v>
       </c>
       <c r="N11" t="n">
         <v>478.2881520867285</v>
       </c>
       <c r="O11" t="n">
-        <v>398.8632430757229</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P11" t="n">
         <v>307.9382672499271</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>88.09805462780569</v>
       </c>
       <c r="K12" t="n">
         <v>278.3580710427828</v>
@@ -35498,16 +35498,16 @@
         <v>562.9739572239782</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4044077482508</v>
+        <v>123.251143788619</v>
       </c>
       <c r="O12" t="n">
         <v>464.7485518834703</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.3020992960577</v>
+        <v>196.1628128732075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466124</v>
+        <v>46.62700578466132</v>
       </c>
       <c r="K13" t="n">
-        <v>151.0191897391237</v>
+        <v>151.0191897391238</v>
       </c>
       <c r="L13" t="n">
         <v>226.5511725703757</v>
       </c>
       <c r="M13" t="n">
-        <v>246.066406569938</v>
+        <v>246.0664065699381</v>
       </c>
       <c r="N13" t="n">
-        <v>245.5987790526331</v>
+        <v>245.5987790526332</v>
       </c>
       <c r="O13" t="n">
         <v>222.6152580511275</v>
       </c>
       <c r="P13" t="n">
-        <v>181.8313544842262</v>
+        <v>181.8313544842263</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415046</v>
+        <v>71.08228883415055</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>81.46734621600361</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K14" t="n">
         <v>311.1004426054803</v>
@@ -35653,19 +35653,19 @@
         <v>436.4223628785869</v>
       </c>
       <c r="M14" t="n">
-        <v>491.815744411328</v>
+        <v>301.2613619200901</v>
       </c>
       <c r="N14" t="n">
         <v>478.2881520867285</v>
       </c>
       <c r="O14" t="n">
-        <v>398.8632430757229</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P14" t="n">
         <v>307.9382672499271</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09805462780571</v>
+        <v>88.09805462780569</v>
       </c>
       <c r="K15" t="n">
         <v>278.3580710427828</v>
@@ -35735,7 +35735,7 @@
         <v>562.9739572239782</v>
       </c>
       <c r="N15" t="n">
-        <v>123.2511437886194</v>
+        <v>319.4139566618266</v>
       </c>
       <c r="O15" t="n">
         <v>464.7485518834703</v>
@@ -35744,7 +35744,7 @@
         <v>360.1944957546764</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.1628128732075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466131</v>
+        <v>46.62700578466122</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0191897391238</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703757</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M16" t="n">
-        <v>246.0664065699381</v>
+        <v>246.066406569938</v>
       </c>
       <c r="N16" t="n">
-        <v>245.5987790526332</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O16" t="n">
         <v>222.6152580511275</v>
       </c>
       <c r="P16" t="n">
-        <v>181.8313544842263</v>
+        <v>181.8313544842262</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415053</v>
+        <v>71.08228883415043</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>436.4223628785869</v>
       </c>
       <c r="M17" t="n">
-        <v>454.8292936706115</v>
+        <v>301.2613619200901</v>
       </c>
       <c r="N17" t="n">
         <v>478.2881520867285</v>
       </c>
       <c r="O17" t="n">
-        <v>398.8632430757229</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P17" t="n">
         <v>307.9382672499271</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>278.3580710427828</v>
       </c>
       <c r="L18" t="n">
         <v>432.1084713292372</v>
@@ -35972,16 +35972,16 @@
         <v>562.9739572239782</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4044077482508</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O18" t="n">
-        <v>464.7485518834703</v>
+        <v>280.8561554248516</v>
       </c>
       <c r="P18" t="n">
         <v>360.1944957546764</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.46567458416479</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057192</v>
+        <v>62.02205740057191</v>
       </c>
       <c r="L19" t="n">
-        <v>137.5540402318239</v>
+        <v>137.5540402318238</v>
       </c>
       <c r="M19" t="n">
         <v>157.0692742313862</v>
@@ -36054,7 +36054,7 @@
         <v>156.6016467140813</v>
       </c>
       <c r="O19" t="n">
-        <v>133.6181257125757</v>
+        <v>133.6181257125756</v>
       </c>
       <c r="P19" t="n">
         <v>92.8342221456744</v>
@@ -36121,19 +36121,19 @@
         <v>118.45379695672</v>
       </c>
       <c r="K20" t="n">
-        <v>311.1004426054803</v>
+        <v>120.5460601142424</v>
       </c>
       <c r="L20" t="n">
         <v>436.4223628785869</v>
       </c>
       <c r="M20" t="n">
-        <v>301.2613619200901</v>
+        <v>491.815744411328</v>
       </c>
       <c r="N20" t="n">
         <v>478.2881520867285</v>
       </c>
       <c r="O20" t="n">
-        <v>398.8632430757229</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P20" t="n">
         <v>307.9382672499271</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.09805462780571</v>
+        <v>88.09805462780569</v>
       </c>
       <c r="K21" t="n">
         <v>278.3580710427828</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057192</v>
+        <v>62.02205740057191</v>
       </c>
       <c r="L22" t="n">
-        <v>137.5540402318239</v>
+        <v>137.5540402318238</v>
       </c>
       <c r="M22" t="n">
         <v>157.0692742313862</v>
@@ -36291,7 +36291,7 @@
         <v>156.6016467140813</v>
       </c>
       <c r="O22" t="n">
-        <v>133.6181257125757</v>
+        <v>133.6181257125756</v>
       </c>
       <c r="P22" t="n">
         <v>92.8342221456744</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>81.46734621600181</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K23" t="n">
         <v>311.1004426054803</v>
@@ -36364,19 +36364,19 @@
         <v>436.4223628785869</v>
       </c>
       <c r="M23" t="n">
-        <v>491.815744411328</v>
+        <v>301.2613619200901</v>
       </c>
       <c r="N23" t="n">
         <v>478.2881520867285</v>
       </c>
       <c r="O23" t="n">
-        <v>398.8632430757229</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P23" t="n">
         <v>307.9382672499271</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09805462780571</v>
+        <v>88.09805462780569</v>
       </c>
       <c r="K24" t="n">
         <v>278.3580710427828</v>
@@ -36446,7 +36446,7 @@
         <v>562.9739572239782</v>
       </c>
       <c r="N24" t="n">
-        <v>123.2511437886176</v>
+        <v>123.251143788619</v>
       </c>
       <c r="O24" t="n">
         <v>464.7485518834703</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057192</v>
+        <v>62.02205740057191</v>
       </c>
       <c r="L25" t="n">
-        <v>137.5540402318239</v>
+        <v>137.5540402318238</v>
       </c>
       <c r="M25" t="n">
         <v>157.0692742313862</v>
@@ -36528,7 +36528,7 @@
         <v>156.6016467140813</v>
       </c>
       <c r="O25" t="n">
-        <v>133.6181257125757</v>
+        <v>133.6181257125756</v>
       </c>
       <c r="P25" t="n">
         <v>92.8342221456744</v>
@@ -36607,16 +36607,16 @@
         <v>580.7873033426848</v>
       </c>
       <c r="O26" t="n">
-        <v>399.0118134859232</v>
+        <v>501.3623943316792</v>
       </c>
       <c r="P26" t="n">
-        <v>410.4374185058834</v>
+        <v>308.0868376601279</v>
       </c>
       <c r="Q26" t="n">
         <v>256.0670830064773</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004362</v>
+        <v>46.61117633004361</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09805462780571</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>278.3580710427828</v>
@@ -36680,10 +36680,10 @@
         <v>432.1084713292372</v>
       </c>
       <c r="M27" t="n">
-        <v>94.82069326434559</v>
+        <v>182.9187478921513</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4044077482508</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834703</v>
@@ -36765,13 +36765,13 @@
         <v>259.1007979700375</v>
       </c>
       <c r="O28" t="n">
-        <v>236.117276968532</v>
+        <v>236.1172769685319</v>
       </c>
       <c r="P28" t="n">
-        <v>195.3333734016308</v>
+        <v>195.3333734016307</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58430775155493</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.9529482126763</v>
+        <v>220.9529482126764</v>
       </c>
       <c r="K29" t="n">
         <v>413.5995938614367</v>
@@ -36838,13 +36838,13 @@
         <v>538.9215141345433</v>
       </c>
       <c r="M29" t="n">
-        <v>491.9643148215284</v>
+        <v>594.3148956672843</v>
       </c>
       <c r="N29" t="n">
-        <v>580.7873033426849</v>
+        <v>580.7873033426848</v>
       </c>
       <c r="O29" t="n">
-        <v>501.3623943316792</v>
+        <v>399.0118134859223</v>
       </c>
       <c r="P29" t="n">
         <v>410.4374185058834</v>
@@ -36853,7 +36853,7 @@
         <v>256.0670830064774</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004364</v>
+        <v>46.6111763300437</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09805462780574</v>
+        <v>88.09805462780569</v>
       </c>
       <c r="K30" t="n">
-        <v>278.3580710427829</v>
+        <v>278.3580710427828</v>
       </c>
       <c r="L30" t="n">
-        <v>432.1084713292373</v>
+        <v>432.1084713292372</v>
       </c>
       <c r="M30" t="n">
         <v>562.9739572239782</v>
       </c>
       <c r="N30" t="n">
-        <v>123.2511437886181</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O30" t="n">
         <v>464.7485518834703</v>
       </c>
       <c r="P30" t="n">
-        <v>360.1944957546765</v>
+        <v>360.1944957546764</v>
       </c>
       <c r="Q30" t="n">
         <v>196.1628128732075</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206571</v>
+        <v>60.12902470206579</v>
       </c>
       <c r="K31" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565283</v>
       </c>
       <c r="L31" t="n">
         <v>240.0531914877802</v>
       </c>
       <c r="M31" t="n">
-        <v>259.5684254873426</v>
+        <v>259.5684254873404</v>
       </c>
       <c r="N31" t="n">
-        <v>259.1007979700376</v>
+        <v>259.1007979700377</v>
       </c>
       <c r="O31" t="n">
         <v>236.117276968532</v>
       </c>
       <c r="P31" t="n">
-        <v>195.3333734016307</v>
+        <v>195.3333734016308</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.58430775155493</v>
+        <v>84.584307751555</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>413.5995938614366</v>
       </c>
       <c r="L32" t="n">
-        <v>538.9215141345431</v>
+        <v>436.5709332887868</v>
       </c>
       <c r="M32" t="n">
         <v>594.3148956672842</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7873033426847</v>
+        <v>580.7873033426848</v>
       </c>
       <c r="O32" t="n">
-        <v>399.0118134859241</v>
+        <v>501.3623943316791</v>
       </c>
       <c r="P32" t="n">
         <v>410.4374185058833</v>
@@ -37090,7 +37090,7 @@
         <v>256.0670830064773</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004358</v>
+        <v>46.6111763300436</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780571</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>242.3132784123874</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>330.4113330401933</v>
       </c>
       <c r="M33" t="n">
         <v>562.9739572239782</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4044077482508</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O33" t="n">
         <v>464.7485518834703</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206566</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5212086565281</v>
+        <v>164.5212086565282</v>
       </c>
       <c r="L34" t="n">
         <v>240.0531914877801</v>
@@ -37242,10 +37242,10 @@
         <v>236.1172769685319</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016306</v>
+        <v>195.3333734016307</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155574</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>278.3580710427828</v>
       </c>
       <c r="L36" t="n">
-        <v>432.1084713292372</v>
+        <v>428.703759253075</v>
       </c>
       <c r="M36" t="n">
         <v>562.9739572239782</v>
       </c>
       <c r="N36" t="n">
-        <v>123.2511437886181</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O36" t="n">
-        <v>464.7485518834703</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>360.1944957546764</v>
@@ -37558,7 +37558,7 @@
         <v>398.8632430757228</v>
       </c>
       <c r="P38" t="n">
-        <v>307.9382672499268</v>
+        <v>307.9382672499271</v>
       </c>
       <c r="Q38" t="n">
         <v>153.567931750521</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567187</v>
       </c>
       <c r="K44" t="n">
         <v>311.1004426054803</v>
@@ -38023,7 +38023,7 @@
         <v>436.4223628785869</v>
       </c>
       <c r="M44" t="n">
-        <v>491.8157444113275</v>
+        <v>491.815744411328</v>
       </c>
       <c r="N44" t="n">
         <v>478.2881520867285</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09805462780569</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>278.3580710427828</v>
@@ -38102,7 +38102,7 @@
         <v>432.1084713292372</v>
       </c>
       <c r="M45" t="n">
-        <v>94.82069326434537</v>
+        <v>182.9187478921511</v>
       </c>
       <c r="N45" t="n">
         <v>591.4044077482507</v>
